--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farbodrafezy/Documents/personal/projects/dspuci-website-gatsby/src/data/fall19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dsp/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C335FFE1-BE06-AD4A-B85B-77031CC28562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54BDAE1-3E6F-9C4D-B31D-B91BB48908F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships 2019" sheetId="1" r:id="rId1"/>
     <sheet name="Full Time Offers 2019" sheetId="2" r:id="rId2"/>
-    <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId3"/>
+    <sheet name="Internships 2020" sheetId="4" r:id="rId3"/>
+    <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="238">
   <si>
     <t>Name</t>
   </si>
@@ -682,13 +683,67 @@
   </si>
   <si>
     <t>Specialty Masters Assistant</t>
+  </si>
+  <si>
+    <t>J.P. Morgan</t>
+  </si>
+  <si>
+    <t>New York City, NY</t>
+  </si>
+  <si>
+    <t>Management Consulting Intern</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Product Marketing Manager Intern</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Redmond, WA</t>
+  </si>
+  <si>
+    <t>Risk Advisory Intern</t>
+  </si>
+  <si>
+    <t>Emily Su</t>
+  </si>
+  <si>
+    <t>Project Specialist/Manager Intern</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>San Jose, CA</t>
+  </si>
+  <si>
+    <t>Mission Systems Software Engineer Intern</t>
+  </si>
+  <si>
+    <t>Northrup Grumman</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Business Leadership Program - Global Sales Associate</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Healthcare Consulting Analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -702,6 +757,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -726,10 +787,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,7 +1012,7 @@
   </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -2174,15 +2236,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2248,6 +2443,48 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dsp/dspuci-website-gatsby/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brian/Documents/UCI/Organizations/Delta_Sigma_Pi/Director_of_Technology/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54BDAE1-3E6F-9C4D-B31D-B91BB48908F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8793F205-F668-7743-8F75-FE99324539D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships 2019" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,22 @@
     <sheet name="Internships 2020" sheetId="4" r:id="rId3"/>
     <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="301">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +65,6 @@
     <t>Jason Cao</t>
   </si>
   <si>
-    <t>Tech and Venture Banking Financial Analyst</t>
-  </si>
-  <si>
     <t>Wells Fargo</t>
   </si>
   <si>
@@ -688,55 +695,247 @@
     <t>J.P. Morgan</t>
   </si>
   <si>
+    <t>Product Marketing Manager Intern</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Redmond, WA</t>
+  </si>
+  <si>
+    <t>Emily Su</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>San Jose, CA</t>
+  </si>
+  <si>
+    <t>Mission Systems Software Engineer Intern</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Business Leadership Program - Global Sales Associate</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Healthcare Consulting Analyst</t>
+  </si>
+  <si>
+    <t>Brian Anderson</t>
+  </si>
+  <si>
+    <t>Computation Intern</t>
+  </si>
+  <si>
+    <t>Lawrence Livermore National Laboratory</t>
+  </si>
+  <si>
+    <t>Livermore, CA</t>
+  </si>
+  <si>
+    <t>Aayush Shah</t>
+  </si>
+  <si>
+    <t>Aishu Parsuram</t>
+  </si>
+  <si>
+    <t>Alina Tu</t>
+  </si>
+  <si>
+    <t>Grace Till</t>
+  </si>
+  <si>
+    <t>Julie Luu</t>
+  </si>
+  <si>
+    <t>Megha Bhargava</t>
+  </si>
+  <si>
+    <t>Meghan Cadigal</t>
+  </si>
+  <si>
+    <t>Melanie Huang</t>
+  </si>
+  <si>
+    <t>Patrick Tu</t>
+  </si>
+  <si>
+    <t>Ryan Lau</t>
+  </si>
+  <si>
+    <t>Tiffany Than</t>
+  </si>
+  <si>
+    <t>Ryan To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akila Kumar </t>
+  </si>
+  <si>
+    <t>Business Growth and Strategy Intern</t>
+  </si>
+  <si>
+    <t>Realtalk</t>
+  </si>
+  <si>
+    <t>NYC, NY</t>
+  </si>
+  <si>
+    <t>Paradox</t>
+  </si>
+  <si>
+    <t>Risk and Financial Advisory Intern</t>
+  </si>
+  <si>
+    <t>Summer Intern</t>
+  </si>
+  <si>
+    <t>City National Bank</t>
+  </si>
+  <si>
+    <t>Peer Consultant</t>
+  </si>
+  <si>
+    <t>SSARC</t>
+  </si>
+  <si>
+    <t>Financial Analyst Intern</t>
+  </si>
+  <si>
+    <t>Varian</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing Intern</t>
+  </si>
+  <si>
+    <t>Ingram Micro</t>
+  </si>
+  <si>
+    <t>Northrop Grumman</t>
+  </si>
+  <si>
+    <t>Strategy &amp; Execution Consulting Intern</t>
+  </si>
+  <si>
+    <t>Cornerstone Advisors</t>
+  </si>
+  <si>
+    <t>Scottsdale, AZ</t>
+  </si>
+  <si>
+    <t>Project Manager Intern</t>
+  </si>
+  <si>
+    <t>Merrill Lynch</t>
+  </si>
+  <si>
+    <t>MeFit IOT</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Technical Recruiting Coordinator Intern</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Benefits Communications and Fair Coordination Intern</t>
+  </si>
+  <si>
+    <t>VMware</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Santa Clara, CA</t>
+  </si>
+  <si>
+    <t>Business Analyst Intern</t>
+  </si>
+  <si>
+    <t>Social Media Marketing</t>
+  </si>
+  <si>
+    <t>INH Hair</t>
+  </si>
+  <si>
+    <t>Marketing and Business Development Intern</t>
+  </si>
+  <si>
+    <t>Leasing Associate Intern</t>
+  </si>
+  <si>
+    <t>Essex Property Trust</t>
+  </si>
+  <si>
+    <t>HR &amp; Recruitment Intern</t>
+  </si>
+  <si>
+    <t>Greenhouse Agency</t>
+  </si>
+  <si>
+    <t>Program Manager Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Mesa, CA </t>
+  </si>
+  <si>
+    <t>Hack+</t>
+  </si>
+  <si>
+    <t>Interlink Global Investments</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Plantifique Skincare</t>
+  </si>
+  <si>
+    <t>Qmetry</t>
+  </si>
+  <si>
+    <t>Bright Future Consulting, Inc.</t>
+  </si>
+  <si>
+    <t>Credit Analyst</t>
+  </si>
+  <si>
+    <t>California Bank &amp; Trust</t>
+  </si>
+  <si>
+    <t>Corporate and Investmnet Bank Analyst</t>
+  </si>
+  <si>
     <t>New York City, NY</t>
   </si>
   <si>
-    <t>Management Consulting Intern</t>
-  </si>
-  <si>
-    <t>Chicago, IL</t>
-  </si>
-  <si>
-    <t>Product Marketing Manager Intern</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>Redmond, WA</t>
-  </si>
-  <si>
-    <t>Risk Advisory Intern</t>
-  </si>
-  <si>
-    <t>Emily Su</t>
-  </si>
-  <si>
-    <t>Project Specialist/Manager Intern</t>
-  </si>
-  <si>
-    <t>Cisco</t>
-  </si>
-  <si>
-    <t>San Jose, CA</t>
-  </si>
-  <si>
-    <t>Mission Systems Software Engineer Intern</t>
-  </si>
-  <si>
-    <t>Northrup Grumman</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Business Leadership Program - Global Sales Associate</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>Healthcare Consulting Analyst</t>
+    <t>Digital Marketing Associate</t>
+  </si>
+  <si>
+    <t>Healthline Media</t>
+  </si>
+  <si>
+    <t>Software Development Engineer</t>
+  </si>
+  <si>
+    <t>Ryan Eshaghi</t>
+  </si>
+  <si>
+    <t>Flexbooth</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
   </si>
 </sst>
 </file>
@@ -787,11 +986,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,16 +1250,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1065,16 +1267,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1082,16 +1284,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1099,285 +1301,285 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
@@ -1385,435 +1587,435 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
@@ -1821,177 +2023,177 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2037,50 +2239,50 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2088,146 +2290,146 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2237,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2251,7 +2453,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2265,105 +2467,588 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C20" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D20" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D24" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2373,11 +3058,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2402,87 +3087,213 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brian/Documents/UCI/Organizations/Delta_Sigma_Pi/Director_of_Technology/dspuci-website-gatsby/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8793F205-F668-7743-8F75-FE99324539D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE826F-3812-6343-9B75-6AF09012F9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14620" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships 2019" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="308">
   <si>
     <t>Name</t>
   </si>
@@ -936,6 +936,27 @@
   </si>
   <si>
     <t>Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Finance &amp; Accounting</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Marketing &amp; Sales</t>
+  </si>
+  <si>
+    <t>Technology &amp; PM</t>
+  </si>
+  <si>
+    <t>Human Resources &amp; Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulting </t>
+  </si>
+  <si>
+    <t>Technology and PM</t>
   </si>
 </sst>
 </file>
@@ -1215,15 +1236,15 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="49.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
@@ -1849,6 +1870,9 @@
       </c>
       <c r="C37" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>18</v>
@@ -2442,15 +2466,16 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2464,6 +2489,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2478,6 +2506,9 @@
         <v>249</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2492,6 +2523,9 @@
         <v>219</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2506,6 +2540,9 @@
         <v>251</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2520,6 +2557,9 @@
         <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2534,6 +2574,9 @@
         <v>254</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2548,6 +2591,9 @@
         <v>256</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2562,6 +2608,9 @@
         <v>258</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2576,6 +2625,9 @@
         <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2589,7 +2641,10 @@
       <c r="C10" t="s">
         <v>260</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2603,7 +2658,10 @@
       <c r="C11" t="s">
         <v>261</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2617,7 +2675,10 @@
       <c r="C12" t="s">
         <v>233</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" t="s">
         <v>234</v>
       </c>
       <c r="G12" s="4"/>
@@ -2633,7 +2694,10 @@
       <c r="C13" t="s">
         <v>187</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
         <v>188</v>
       </c>
       <c r="G13" s="4"/>
@@ -2649,7 +2713,10 @@
       <c r="C14" t="s">
         <v>263</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>264</v>
       </c>
       <c r="G14" s="4"/>
@@ -2665,7 +2732,10 @@
       <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" t="s">
         <v>225</v>
       </c>
       <c r="G15" s="4"/>
@@ -2681,7 +2751,10 @@
       <c r="C16" t="s">
         <v>266</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="4"/>
@@ -2697,7 +2770,10 @@
       <c r="C17" t="s">
         <v>267</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" t="s">
         <v>268</v>
       </c>
       <c r="G17" s="4"/>
@@ -2713,7 +2789,10 @@
       <c r="C18" t="s">
         <v>270</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="4"/>
@@ -2729,7 +2808,10 @@
       <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="4"/>
@@ -2745,7 +2827,10 @@
       <c r="C20" t="s">
         <v>221</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" t="s">
         <v>222</v>
       </c>
       <c r="G20" s="4"/>
@@ -2761,7 +2846,10 @@
       <c r="C21" t="s">
         <v>272</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" t="s">
         <v>172</v>
       </c>
       <c r="G21" s="4"/>
@@ -2777,7 +2865,10 @@
       <c r="C22" t="s">
         <v>289</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" t="s">
         <v>287</v>
       </c>
       <c r="G22" s="4"/>
@@ -2793,7 +2884,10 @@
       <c r="C23" t="s">
         <v>273</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" t="s">
         <v>274</v>
       </c>
       <c r="G23" s="4"/>
@@ -2809,7 +2903,10 @@
       <c r="C24" t="s">
         <v>224</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" t="s">
         <v>225</v>
       </c>
       <c r="G24" s="4"/>
@@ -2825,7 +2922,10 @@
       <c r="C25" t="s">
         <v>288</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" t="s">
         <v>287</v>
       </c>
       <c r="G25" s="4"/>
@@ -2841,7 +2941,10 @@
       <c r="C26" t="s">
         <v>277</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="4"/>
@@ -2857,7 +2960,10 @@
       <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="4"/>
@@ -2873,7 +2979,10 @@
       <c r="C28" t="s">
         <v>290</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" t="s">
         <v>287</v>
       </c>
       <c r="G28" s="4"/>
@@ -2889,7 +2998,10 @@
       <c r="C29" t="s">
         <v>280</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="4"/>
@@ -2905,7 +3017,10 @@
       <c r="C30" t="s">
         <v>282</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="4"/>
@@ -2921,7 +3036,10 @@
       <c r="C31" t="s">
         <v>221</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" t="s">
         <v>222</v>
       </c>
       <c r="G31" s="4"/>
@@ -2937,7 +3055,10 @@
       <c r="C32" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" t="s">
         <v>284</v>
       </c>
       <c r="G32" s="4"/>
@@ -2953,7 +3074,10 @@
       <c r="C33" t="s">
         <v>285</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" t="s">
         <v>130</v>
       </c>
       <c r="G33" s="4"/>
@@ -2969,7 +3093,10 @@
       <c r="C34" t="s">
         <v>286</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" t="s">
         <v>287</v>
       </c>
       <c r="G34" s="4"/>
@@ -2985,7 +3112,10 @@
       <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E35" t="s">
         <v>29</v>
       </c>
       <c r="G35" s="4"/>
@@ -3001,7 +3131,10 @@
       <c r="C36" t="s">
         <v>78</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E36" t="s">
         <v>80</v>
       </c>
       <c r="G36" s="4"/>
@@ -3058,11 +3191,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3070,9 +3203,10 @@
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3083,10 +3217,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3097,10 +3234,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3111,10 +3251,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -3125,10 +3268,13 @@
         <v>292</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
@@ -3139,10 +3285,13 @@
         <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -3153,10 +3302,13 @@
         <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -3167,10 +3319,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -3181,10 +3336,13 @@
         <v>100</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>114</v>
       </c>
@@ -3195,10 +3353,13 @@
         <v>296</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>118</v>
       </c>
@@ -3209,10 +3370,13 @@
         <v>229</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
@@ -3223,10 +3387,13 @@
         <v>168</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -3237,10 +3404,13 @@
         <v>168</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>177</v>
       </c>
@@ -3251,10 +3421,13 @@
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>178</v>
       </c>
@@ -3265,10 +3438,13 @@
         <v>168</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>182</v>
       </c>
@@ -3279,10 +3455,13 @@
         <v>224</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>298</v>
       </c>
@@ -3293,6 +3472,9 @@
         <v>299</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE826F-3812-6343-9B75-6AF09012F9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FEB176-08EC-6040-81F6-AD41CA1A9121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14620" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20260" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships 2019" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="298">
   <si>
     <t>Name</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Irvine, CA</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>Investment Banking Summer Analyst</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Malavika Basu</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Mutual Funds Summer Analyst</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>Aimee Han</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Finance Intern</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>Associate Product Manager</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>Experian</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>Seagate</t>
   </si>
   <si>
-    <t>Strategy</t>
-  </si>
-  <si>
     <t>Longmont, CO</t>
   </si>
   <si>
@@ -344,9 +329,6 @@
     <t>Nextgen Healthcare, Inc.</t>
   </si>
   <si>
-    <t>Accounting</t>
-  </si>
-  <si>
     <t>Assurance Intern</t>
   </si>
   <si>
@@ -542,9 +524,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
     <t>Seattle, WA</t>
   </si>
   <si>
@@ -611,9 +590,6 @@
     <t>NetApp</t>
   </si>
   <si>
-    <t>Data Analytics</t>
-  </si>
-  <si>
     <t>Sunnyvale, CA</t>
   </si>
   <si>
@@ -623,9 +599,6 @@
     <t>developerDB</t>
   </si>
   <si>
-    <t>Project Management</t>
-  </si>
-  <si>
     <t>Ting Ting Huang</t>
   </si>
   <si>
@@ -954,9 +927,6 @@
   </si>
   <si>
     <t xml:space="preserve">Consulting </t>
-  </si>
-  <si>
-    <t>Technology and PM</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1206,8 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1271,13 +1241,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1288,13 +1258,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1305,13 +1275,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -1322,13 +1292,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1336,16 +1306,16 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -1353,16 +1323,16 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -1370,33 +1340,33 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1404,16 +1374,16 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1421,16 +1391,16 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -1438,19 +1408,19 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1458,30 +1428,30 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1489,33 +1459,33 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -1523,16 +1493,16 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -1540,16 +1510,16 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1560,13 +1530,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
@@ -1574,16 +1544,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
@@ -1591,16 +1561,16 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
@@ -1608,118 +1578,118 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>18</v>
@@ -1727,16 +1697,16 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
@@ -1744,16 +1714,16 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>18</v>
@@ -1761,16 +1731,16 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
@@ -1778,101 +1748,101 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>18</v>
@@ -1880,16 +1850,16 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>18</v>
@@ -1897,33 +1867,33 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>18</v>
@@ -1931,115 +1901,115 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
@@ -2047,84 +2017,84 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>18</v>
@@ -2132,61 +2102,67 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="D55" t="s">
+        <v>296</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>293</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>18</v>
@@ -2194,13 +2170,16 @@
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>18</v>
@@ -2208,13 +2187,16 @@
     </row>
     <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
+      </c>
+      <c r="D58" t="s">
+        <v>293</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>18</v>
@@ -2232,9 +2214,9 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2272,41 +2254,41 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2314,47 +2296,50 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -2362,16 +2347,16 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -2379,13 +2364,16 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -2393,50 +2381,50 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
@@ -2444,13 +2432,16 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>90</v>
+      <c r="D13" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
@@ -2466,7 +2457,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2497,50 +2488,50 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -2548,33 +2539,33 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -2582,16 +2573,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
@@ -2599,33 +2590,33 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -2633,16 +2624,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -2650,109 +2641,109 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -2762,187 +2753,187 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -2952,54 +2943,54 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" t="s">
         <v>278</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" t="s">
-        <v>287</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -3009,16 +3000,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
@@ -3028,114 +3019,114 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E32" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E34" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3193,9 +3184,9 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3234,7 +3225,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -3251,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -3259,33 +3250,33 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -3293,19 +3284,19 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3319,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -3327,16 +3318,16 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -3344,16 +3335,16 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -3361,16 +3352,16 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -3378,101 +3369,101 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B458BA-CCD8-5945-84C2-05EF92245BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEC6B9-C4D5-B94B-AFE3-E98463A9B78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships 2019" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="334">
   <si>
     <t>Name</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Consulting</t>
   </si>
   <si>
-    <t>Investment Reporting Intern</t>
-  </si>
-  <si>
     <t>Pathway Capital Management</t>
   </si>
   <si>
@@ -881,9 +878,6 @@
     <t>Human Resources &amp; Administration</t>
   </si>
   <si>
-    <t xml:space="preserve">Consulting </t>
-  </si>
-  <si>
     <t>Investment and Reporting Intern</t>
   </si>
   <si>
@@ -1040,7 +1034,7 @@
     <t>CEO</t>
   </si>
   <si>
-    <t>Technology and PM</t>
+    <t>Private Equity Investment Reporting Intern</t>
   </si>
 </sst>
 </file>
@@ -1325,9 +1319,9 @@
   </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1358,16 +1352,16 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -1375,16 +1369,16 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>18</v>
@@ -1392,16 +1386,16 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -1409,16 +1403,16 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>11</v>
@@ -1426,16 +1420,16 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
@@ -1443,50 +1437,50 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>18</v>
@@ -1494,16 +1488,16 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
@@ -1511,84 +1505,84 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>18</v>
@@ -1596,36 +1590,36 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1633,16 +1627,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1650,13 +1644,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>18</v>
@@ -1664,47 +1658,47 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>25</v>
@@ -1718,16 +1712,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1735,13 +1729,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>18</v>
@@ -1749,16 +1743,16 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>18</v>
@@ -1766,101 +1760,101 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>18</v>
@@ -1871,13 +1865,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>18</v>
@@ -1888,64 +1882,64 @@
         <v>9</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>18</v>
@@ -1953,33 +1947,33 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>18</v>
@@ -1987,64 +1981,64 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>25</v>
@@ -2055,169 +2049,169 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>18</v>
@@ -2225,16 +2219,16 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>7</v>
@@ -2242,33 +2236,33 @@
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>18</v>
@@ -2276,33 +2270,33 @@
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>18</v>
@@ -2329,9 +2323,9 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2360,67 +2354,67 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>18</v>
@@ -2428,16 +2422,16 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
@@ -2445,16 +2439,16 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>11</v>
@@ -2471,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
@@ -2479,13 +2473,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>25</v>
@@ -2496,16 +2490,16 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
@@ -2513,19 +2507,19 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2542,18 +2536,18 @@
         <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>25</v>
@@ -2575,7 +2569,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2606,33 +2600,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
@@ -2640,33 +2634,33 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -2674,33 +2668,33 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -2708,16 +2702,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -2725,33 +2719,33 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -2759,33 +2753,33 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
@@ -2795,16 +2789,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -2814,16 +2808,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -2833,73 +2827,73 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -2909,16 +2903,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
@@ -2928,16 +2922,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
@@ -2947,29 +2941,29 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -2978,20 +2972,20 @@
         <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>25</v>
@@ -3004,35 +2998,35 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
@@ -3042,35 +3036,35 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>18</v>
@@ -3080,16 +3074,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -3099,73 +3093,73 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>18</v>
@@ -3175,16 +3169,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
@@ -3194,35 +3188,35 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
@@ -3232,16 +3226,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
@@ -3251,35 +3245,35 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
@@ -3289,35 +3283,35 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
@@ -3327,35 +3321,35 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -3365,73 +3359,73 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
@@ -3441,33 +3435,33 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
@@ -3475,50 +3469,50 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
@@ -3526,16 +3520,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>11</v>
@@ -3543,33 +3537,33 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>18</v>
@@ -3577,50 +3571,50 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3628,50 +3622,50 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>18</v>
@@ -3679,16 +3673,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>18</v>
@@ -3696,67 +3690,67 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
@@ -3780,7 +3774,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3810,36 +3804,36 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3853,7 +3847,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -3870,7 +3864,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>282</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -3878,33 +3872,33 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -3921,7 +3915,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -3929,33 +3923,33 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -3963,16 +3957,16 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>282</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -3980,16 +3974,16 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -3997,67 +3991,67 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEC6B9-C4D5-B94B-AFE3-E98463A9B78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF744134-1338-BA4E-9455-4E7058A9664F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships 2019" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="335">
   <si>
     <t>Name</t>
   </si>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t>Private Equity Investment Reporting Intern</t>
+  </si>
+  <si>
+    <t>Accounting</t>
   </si>
 </sst>
 </file>
@@ -1319,9 +1322,9 @@
   </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1896,36 +1899,24 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1933,10 +1924,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>276</v>
@@ -1947,13 +1938,13 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>276</v>
@@ -1964,16 +1955,16 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>18</v>
@@ -1981,19 +1972,19 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2001,10 +1992,10 @@
         <v>133</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>278</v>
@@ -2015,19 +2006,19 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2035,13 +2026,13 @@
         <v>92</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>18</v>
@@ -2049,36 +2040,36 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2089,47 +2080,47 @@
         <v>107</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2137,135 +2128,135 @@
         <v>113</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>279</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2273,40 +2264,51 @@
         <v>185</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>279</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
@@ -2323,7 +2325,7 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brian/Documents/UCI/Organizations/Delta_Sigma_Pi/Director_of_Technology/dspuci-website-gatsby/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC4A04-D45C-9E4D-A552-F8841EAE6A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDAF4F8-E005-1544-A8BB-EF76100DAD6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="860" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="631">
   <si>
     <t>Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Consulting</t>
   </si>
   <si>
-    <t>Pathway Capital Management</t>
-  </si>
-  <si>
     <t>Costa Mesa, CA</t>
   </si>
   <si>
@@ -141,15 +138,9 @@
     <t>Ernst &amp; Young</t>
   </si>
   <si>
-    <t>Wealth Management Client Associate</t>
-  </si>
-  <si>
     <t>Alec Lau</t>
   </si>
   <si>
-    <t>Bank of America Merrill Lynch</t>
-  </si>
-  <si>
     <t>Finance, Strategy, and Operations Associate</t>
   </si>
   <si>
@@ -180,15 +171,9 @@
     <t>Mountain View, CA</t>
   </si>
   <si>
-    <t>Credit Administration Intern</t>
-  </si>
-  <si>
     <t>Kenny Pham</t>
   </si>
   <si>
-    <t>Pacific Premier Bank</t>
-  </si>
-  <si>
     <t>Channel Marketing Associate</t>
   </si>
   <si>
@@ -282,9 +267,6 @@
     <t>Obsidian Entertainment</t>
   </si>
   <si>
-    <t>Undergraduate Finance Associate - Experience Integration</t>
-  </si>
-  <si>
     <t>Lynn Phan</t>
   </si>
   <si>
@@ -315,12 +297,6 @@
     <t>Longmont, CO</t>
   </si>
   <si>
-    <t>Strategy &amp; Business Development Intern</t>
-  </si>
-  <si>
-    <t>FRESH Basic Needs Hub</t>
-  </si>
-  <si>
     <t>Kristen Chan</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>Tax Intern</t>
   </si>
   <si>
-    <t>Nextgen Healthcare, Inc.</t>
-  </si>
-  <si>
     <t>Assurance Intern</t>
   </si>
   <si>
@@ -387,9 +360,6 @@
     <t>Marissa Koo</t>
   </si>
   <si>
-    <t>Fujitsu</t>
-  </si>
-  <si>
     <t>Foothill Ranch, CA</t>
   </si>
   <si>
@@ -438,12 +408,6 @@
     <t>Anteater Recreation Center</t>
   </si>
   <si>
-    <t>Marketing Intern &amp; Retail Associate</t>
-  </si>
-  <si>
-    <t>Bono Spera</t>
-  </si>
-  <si>
     <t>Kelly Cheng</t>
   </si>
   <si>
@@ -456,21 +420,12 @@
     <t>Loma Linda, CA</t>
   </si>
   <si>
-    <t>Social Media Coordinator</t>
-  </si>
-  <si>
-    <t>Fix Creamery</t>
-  </si>
-  <si>
     <t>Lisa Deng</t>
   </si>
   <si>
     <t>EtherWAN Systems</t>
   </si>
   <si>
-    <t>MAB Digital Marketing</t>
-  </si>
-  <si>
     <t>Orange County, CA</t>
   </si>
   <si>
@@ -594,12 +549,6 @@
     <t>Sunnyvale, CA</t>
   </si>
   <si>
-    <t>Project Management Intern</t>
-  </si>
-  <si>
-    <t>developerDB</t>
-  </si>
-  <si>
     <t>Ting Ting Huang</t>
   </si>
   <si>
@@ -609,15 +558,6 @@
     <t>UCI Student Center &amp; Event Services</t>
   </si>
   <si>
-    <t>Teaching Assistant</t>
-  </si>
-  <si>
-    <t>TEALSK12</t>
-  </si>
-  <si>
-    <t>Tucson, AZ</t>
-  </si>
-  <si>
     <t>Brandon Khong</t>
   </si>
   <si>
@@ -888,111 +828,33 @@
     <t>Human Resources &amp; Administration</t>
   </si>
   <si>
-    <t>Investment and Reporting Intern</t>
-  </si>
-  <si>
     <t>Credit Analyst Intern</t>
   </si>
   <si>
-    <t>Investment Banking Intern</t>
-  </si>
-  <si>
-    <t>41 North LLC</t>
-  </si>
-  <si>
     <t>Newport Beach, CA</t>
   </si>
   <si>
     <t>Audit and Assurance Intern</t>
   </si>
   <si>
-    <t>Management Consulting Intern</t>
-  </si>
-  <si>
-    <t>Chicago, IL</t>
-  </si>
-  <si>
-    <t>Research Analyst</t>
-  </si>
-  <si>
-    <t>L.S. Congleton &amp; Associates</t>
-  </si>
-  <si>
     <t>Strategy and Execution Consulting Intern</t>
   </si>
   <si>
-    <t>Pro Bono Consultant</t>
-  </si>
-  <si>
-    <t>ReShape Co.</t>
-  </si>
-  <si>
-    <t>EtherWAN Systems Inc.</t>
-  </si>
-  <si>
     <t>QMetry</t>
   </si>
   <si>
     <t>UCI Office of the Vice Provost for Teaching and Learning</t>
   </si>
   <si>
-    <t>International Marketing Assistant</t>
-  </si>
-  <si>
     <t>UCI Division of Continuing Education</t>
   </si>
   <si>
-    <t>Digital Marketing and E-Commerce Intern</t>
-  </si>
-  <si>
-    <t>GAOTek, Inc.</t>
-  </si>
-  <si>
-    <t>Momentum Group</t>
-  </si>
-  <si>
-    <t>Marketing and Operations Intern</t>
-  </si>
-  <si>
-    <t>A-Tech Consulting Inc.</t>
-  </si>
-  <si>
     <t>Bright Future Consulting Inc.</t>
   </si>
   <si>
     <t>Northrup Grumman</t>
   </si>
   <si>
-    <t>Business Intelligence/Data Warehouse Programmer</t>
-  </si>
-  <si>
-    <t>UC Irvine</t>
-  </si>
-  <si>
-    <t>Technical Project Manager</t>
-  </si>
-  <si>
-    <t>Code Path</t>
-  </si>
-  <si>
-    <t>Outhrive</t>
-  </si>
-  <si>
-    <t>IoT Security Engineering Intern</t>
-  </si>
-  <si>
-    <t>Mobilitie</t>
-  </si>
-  <si>
-    <t>XLsoft Corporation</t>
-  </si>
-  <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>UCI Student Services &amp; Event Center</t>
-  </si>
-  <si>
     <t>UCI SSARC</t>
   </si>
   <si>
@@ -1008,33 +870,15 @@
     <t>Student Outreach Coordinator</t>
   </si>
   <si>
-    <t>Foundation Intern</t>
-  </si>
-  <si>
-    <t>Taco Bell</t>
-  </si>
-  <si>
     <t>Human Resources Intern</t>
   </si>
   <si>
-    <t>Alliance HealthCare Services</t>
-  </si>
-  <si>
-    <t>Recruiting and Operations Intern</t>
-  </si>
-  <si>
-    <t>Impactful Resources</t>
-  </si>
-  <si>
     <t>General Assistant</t>
   </si>
   <si>
     <t>HR and Recruitment Intern</t>
   </si>
   <si>
-    <t>Speciality Masters Program Student Assistant</t>
-  </si>
-  <si>
     <t>Administrative and Research Assistant</t>
   </si>
   <si>
@@ -1042,9 +886,6 @@
   </si>
   <si>
     <t>CEO</t>
-  </si>
-  <si>
-    <t>Private Equity Investment Reporting Intern</t>
   </si>
   <si>
     <t>Andy Chuang</t>
@@ -2440,13 +2281,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2454,7 +2295,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2490,27 +2331,27 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -2518,21 +2359,21 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2540,13 +2381,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -2554,13 +2395,13 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -2568,7 +2409,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2576,13 +2417,13 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -2590,7 +2431,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2598,72 +2439,72 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2547,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2714,27 +2555,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -2742,13 +2583,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -2756,13 +2597,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -2770,13 +2611,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -2784,13 +2625,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -2798,13 +2639,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -2812,13 +2653,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
@@ -2826,7 +2667,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2834,21 +2675,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2856,13 +2697,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -2870,27 +2711,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>527</v>
+        <v>474</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -2898,13 +2739,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -2912,13 +2753,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>530</v>
+        <v>477</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -2926,13 +2767,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -2940,13 +2781,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>532</v>
+        <v>479</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -2954,13 +2795,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>535</v>
+        <v>482</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -2968,13 +2809,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -2982,7 +2823,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2990,21 +2831,21 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>537</v>
+        <v>484</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>538</v>
+        <v>485</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3012,27 +2853,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>539</v>
+        <v>486</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -3040,7 +2881,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3048,13 +2889,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>541</v>
+        <v>488</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>542</v>
+        <v>489</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
@@ -3105,21 +2946,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>556</v>
+        <v>503</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3127,27 +2968,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>544</v>
+        <v>491</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -3155,7 +2996,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3163,13 +3004,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>546</v>
+        <v>493</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3177,21 +3018,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>550</v>
+        <v>497</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3199,13 +3040,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -3248,7 +3089,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3256,13 +3097,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -3270,27 +3111,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -3298,13 +3139,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -3312,13 +3153,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3326,13 +3167,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>567</v>
+        <v>514</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3340,13 +3181,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>568</v>
+        <v>515</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -3354,13 +3195,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>571</v>
+        <v>518</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
@@ -3368,27 +3209,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>504</v>
+        <v>451</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>573</v>
+        <v>520</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>574</v>
+        <v>521</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -3396,21 +3237,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3418,13 +3259,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3432,13 +3273,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>578</v>
+        <v>525</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -3446,27 +3287,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>581</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -3474,27 +3315,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>582</v>
+        <v>529</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>583</v>
+        <v>530</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>585</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -3502,7 +3343,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3510,13 +3351,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>587</v>
+        <v>534</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -3524,13 +3365,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>588</v>
+        <v>535</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>589</v>
+        <v>536</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -3538,35 +3379,35 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>593</v>
+        <v>540</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>576</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>593</v>
+        <v>540</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>576</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3574,30 +3415,30 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>594</v>
+        <v>541</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>595</v>
+        <v>542</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>596</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>597</v>
+        <v>544</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>598</v>
+        <v>545</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3645,10 +3486,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>608</v>
+        <v>555</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>609</v>
+        <v>556</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -3659,10 +3500,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>610</v>
+        <v>557</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>611</v>
+        <v>558</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
@@ -3673,7 +3514,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3681,13 +3522,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -3695,21 +3536,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>602</v>
+        <v>549</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>573</v>
+        <v>520</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>603</v>
+        <v>550</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -3718,40 +3559,40 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>604</v>
+        <v>551</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>605</v>
+        <v>552</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>606</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>607</v>
+        <v>554</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3759,13 +3600,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>612</v>
+        <v>559</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>613</v>
+        <v>560</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>7</v>
@@ -3773,13 +3614,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>614</v>
+        <v>561</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>615</v>
+        <v>562</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -3787,7 +3628,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3795,13 +3636,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>617</v>
+        <v>564</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3809,16 +3650,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>619</v>
+        <v>566</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>620</v>
+        <v>567</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>621</v>
+        <v>568</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +3671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A3EEF-A80E-B44C-84DA-A35A16B83714}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -3866,13 +3707,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>642</v>
+        <v>589</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -3880,7 +3721,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3888,13 +3729,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>622</v>
+        <v>569</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -3902,13 +3743,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -3916,13 +3757,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3930,13 +3771,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>623</v>
+        <v>570</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3944,10 +3785,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>624</v>
+        <v>571</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -3958,27 +3799,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>625</v>
+        <v>572</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>626</v>
+        <v>573</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>627</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>628</v>
+        <v>575</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -3986,13 +3827,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>544</v>
+        <v>491</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>629</v>
+        <v>576</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -4000,13 +3841,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>630</v>
+        <v>577</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>631</v>
+        <v>578</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>632</v>
+        <v>579</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -4014,27 +3855,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>634</v>
+        <v>581</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>635</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>636</v>
+        <v>583</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>637</v>
+        <v>584</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -4042,13 +3883,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>638</v>
+        <v>585</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>639</v>
+        <v>586</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -4056,7 +3897,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4064,27 +3905,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>643</v>
+        <v>590</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>644</v>
+        <v>591</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>645</v>
+        <v>592</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>646</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>647</v>
+        <v>594</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>648</v>
+        <v>595</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>649</v>
+        <v>596</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -4092,7 +3933,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4100,13 +3941,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>546</v>
+        <v>493</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -4114,13 +3955,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -4128,27 +3969,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>654</v>
+        <v>601</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>655</v>
+        <v>602</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>656</v>
+        <v>603</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -4156,13 +3997,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>657</v>
+        <v>604</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>658</v>
+        <v>605</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>17</v>
@@ -4170,27 +4011,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>582</v>
+        <v>529</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>659</v>
+        <v>606</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>661</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -4198,13 +4039,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>666</v>
+        <v>613</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>667</v>
+        <v>614</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>10</v>
@@ -4212,21 +4053,21 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>668</v>
+        <v>615</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>659</v>
+        <v>606</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>670</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4234,13 +4075,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>671</v>
+        <v>618</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>17</v>
@@ -4248,13 +4089,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>588</v>
+        <v>535</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>673</v>
+        <v>620</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -4262,7 +4103,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4270,13 +4111,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>674</v>
+        <v>621</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>17</v>
@@ -4284,13 +4125,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>17</v>
@@ -4298,27 +4139,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>678</v>
+        <v>625</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>597</v>
+        <v>544</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>680</v>
+        <v>627</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>681</v>
+        <v>628</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>17</v>
@@ -4326,13 +4167,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>683</v>
+        <v>630</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>17</v>
@@ -4345,11 +4186,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4384,267 +4225,275 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>264</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>269</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>161</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>264</v>
+        <v>17</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>315</v>
+        <v>231</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
@@ -4654,13 +4503,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
@@ -4670,29 +4519,29 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
@@ -4702,13 +4551,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -4717,62 +4566,56 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A26" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
@@ -4782,13 +4625,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>297</v>
+        <v>116</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
@@ -4798,603 +4641,271 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>316</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+        <v>244</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+        <v>244</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+        <v>256</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+        <v>192</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+        <v>201</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+        <v>192</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>295</v>
+        <v>188</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D71">
-    <sortCondition ref="A3:A71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D49">
+    <sortCondition ref="A3:A49"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5445,13 +4956,13 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -5468,18 +4979,18 @@
         <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
@@ -5487,7 +4998,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5495,16 +5006,16 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5523,7 +5034,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5531,21 +5042,21 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5553,13 +5064,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -5567,13 +5078,13 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
@@ -5581,13 +5092,13 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -5595,7 +5106,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5603,13 +5114,13 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -5617,7 +5128,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5625,30 +5136,30 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5664,11 +5175,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5703,41 +5214,35 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -5745,49 +5250,55 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -5795,55 +5306,55 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -5851,41 +5362,41 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -5893,27 +5404,21 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -5921,27 +5426,27 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -5949,13 +5454,13 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -5963,41 +5468,35 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -6005,21 +5504,27 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>17</v>
@@ -6027,505 +5532,323 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="C48" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D49" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D63">
-    <sortCondition ref="A3:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D50">
+    <sortCondition ref="A3:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6564,7 +5887,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6572,13 +5895,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -6586,13 +5909,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
@@ -6600,13 +5923,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -6614,13 +5937,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -6628,13 +5951,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -6642,7 +5965,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6650,13 +5973,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -6664,7 +5987,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6672,13 +5995,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -6686,13 +6009,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -6700,13 +6023,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
@@ -6714,13 +6037,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -6728,13 +6051,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -6742,7 +6065,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6750,35 +6073,35 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6786,27 +6109,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -6814,7 +6137,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6822,13 +6145,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
@@ -6870,7 +6193,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6878,13 +6201,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -6892,27 +6215,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -6923,10 +6246,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -6934,13 +6257,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -6948,13 +6271,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -6965,7 +6288,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
@@ -6976,27 +6299,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
@@ -7004,7 +6327,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7012,13 +6335,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>7</v>
@@ -7026,7 +6349,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7034,13 +6357,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -7048,13 +6371,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -7062,13 +6385,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -7076,13 +6399,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -7090,13 +6413,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -7104,13 +6427,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -7118,13 +6441,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -7132,21 +6455,21 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7154,13 +6477,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
@@ -7168,58 +6491,58 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -7227,18 +6550,18 @@
         <v>21</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -7246,13 +6569,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>17</v>
@@ -7260,7 +6583,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -7268,13 +6591,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
@@ -7282,13 +6605,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>10</v>
@@ -7331,7 +6654,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -7339,13 +6662,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7353,13 +6676,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -7367,27 +6690,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -7395,21 +6718,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7417,41 +6740,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -7459,7 +6782,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7467,27 +6790,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -7495,7 +6818,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7503,13 +6826,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -7517,7 +6840,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7525,13 +6848,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -7574,7 +6897,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -7582,13 +6905,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -7596,30 +6919,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -7627,10 +6950,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -7638,13 +6961,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -7652,13 +6975,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -7666,13 +6989,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -7680,13 +7003,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
@@ -7694,13 +7017,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -7711,10 +7034,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -7722,13 +7045,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -7736,21 +7059,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7758,13 +7081,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -7772,27 +7095,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>473</v>
+        <v>420</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -7800,7 +7123,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7808,13 +7131,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -7822,13 +7145,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -7836,13 +7159,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -7850,13 +7173,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -7864,13 +7187,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>477</v>
+        <v>424</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -7878,41 +7201,41 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>479</v>
+        <v>426</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -7920,27 +7243,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>17</v>
@@ -7951,10 +7274,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>17</v>
@@ -7962,13 +7285,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>488</v>
+        <v>435</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>10</v>
@@ -7976,7 +7299,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7984,13 +7307,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
@@ -7998,21 +7321,21 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -8020,27 +7343,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>17</v>
@@ -8048,7 +7371,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -8056,16 +7379,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>495</v>
+        <v>442</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -8113,21 +7436,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>504</v>
+        <v>451</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>505</v>
+        <v>452</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8135,13 +7458,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
@@ -8149,13 +7472,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -8163,13 +7486,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -8177,10 +7500,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -8191,21 +7514,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>503</v>
+        <v>450</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8213,13 +7536,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -8227,13 +7550,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -8241,13 +7564,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -8255,13 +7578,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDAF4F8-E005-1544-A8BB-EF76100DAD6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF711442-DD80-194D-BCE9-13C14A3EA196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="860" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="1100" windowWidth="21160" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="622">
   <si>
     <t>Name</t>
   </si>
@@ -807,12 +807,6 @@
     <t>Software Development Engineer</t>
   </si>
   <si>
-    <t>Ryan Eshaghi</t>
-  </si>
-  <si>
-    <t>Flexbooth</t>
-  </si>
-  <si>
     <t>Finance &amp; Accounting</t>
   </si>
   <si>
@@ -843,9 +837,6 @@
     <t>QMetry</t>
   </si>
   <si>
-    <t>UCI Office of the Vice Provost for Teaching and Learning</t>
-  </si>
-  <si>
     <t>UCI Division of Continuing Education</t>
   </si>
   <si>
@@ -858,31 +849,13 @@
     <t>UCI SSARC</t>
   </si>
   <si>
-    <t>Full-Time MBA Program Student Assistant</t>
-  </si>
-  <si>
     <t>Student Assistant</t>
   </si>
   <si>
-    <t>UCI Donald Bren School of Information and Computer Sciences</t>
-  </si>
-  <si>
-    <t>Student Outreach Coordinator</t>
-  </si>
-  <si>
     <t>Human Resources Intern</t>
   </si>
   <si>
-    <t>General Assistant</t>
-  </si>
-  <si>
     <t>HR and Recruitment Intern</t>
-  </si>
-  <si>
-    <t>Administrative and Research Assistant</t>
-  </si>
-  <si>
-    <t>UCI Center for Digital Transforamtion</t>
   </si>
   <si>
     <t>CEO</t>
@@ -2229,11 +2202,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2295,7 +2268,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2373,7 +2346,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2408,7 +2381,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="3"/>
@@ -2417,99 +2390,113 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="3" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
-    <sortCondition ref="A3:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+    <sortCondition ref="A3:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2547,7 +2534,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2555,27 +2542,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -2583,7 +2570,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -2597,7 +2584,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -2611,13 +2598,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -2625,10 +2612,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>226</v>
@@ -2639,13 +2626,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -2653,7 +2640,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>35</v>
@@ -2667,7 +2654,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2675,21 +2662,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2697,13 +2684,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -2711,13 +2698,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>104</v>
@@ -2725,13 +2712,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -2739,13 +2726,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -2753,13 +2740,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -2767,13 +2754,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -2781,13 +2768,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -2795,13 +2782,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -2809,13 +2796,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -2823,7 +2810,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2831,13 +2818,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>201</v>
@@ -2845,7 +2832,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2853,13 +2840,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>25</v>
@@ -2867,13 +2854,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -2881,7 +2868,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2889,13 +2876,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
@@ -2946,21 +2933,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2968,7 +2955,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -2982,10 +2969,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -2996,7 +2983,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3004,13 +2991,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3018,13 +3005,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>192</v>
@@ -3032,7 +3019,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3040,13 +3027,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -3089,7 +3076,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3097,7 +3084,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>35</v>
@@ -3111,27 +3098,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -3139,7 +3126,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>52</v>
@@ -3153,13 +3140,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3167,13 +3154,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3181,13 +3168,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -3195,13 +3182,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
@@ -3209,27 +3196,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -3237,21 +3224,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3259,13 +3246,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3273,13 +3260,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -3287,27 +3274,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -3315,27 +3302,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -3343,7 +3330,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3351,13 +3338,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -3365,13 +3352,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -3379,35 +3366,35 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3415,27 +3402,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>69</v>
@@ -3486,10 +3473,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -3500,10 +3487,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
@@ -3514,7 +3501,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3522,13 +3509,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -3536,21 +3523,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -3564,24 +3551,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -3592,7 +3579,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3600,10 +3587,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>196</v>
@@ -3614,13 +3601,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -3628,7 +3615,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3636,13 +3623,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3650,13 +3637,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>244</v>
@@ -3707,13 +3694,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -3721,7 +3708,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3729,13 +3716,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -3743,13 +3730,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -3757,13 +3744,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3771,13 +3758,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3785,10 +3772,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -3799,27 +3786,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -3827,10 +3814,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>53</v>
@@ -3841,13 +3828,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -3855,27 +3842,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3883,13 +3870,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -3897,7 +3884,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3905,27 +3892,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -3933,7 +3920,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3941,13 +3928,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -3955,13 +3942,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -3969,13 +3956,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>40</v>
@@ -3983,13 +3970,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -3997,13 +3984,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>17</v>
@@ -4011,27 +3998,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -4039,13 +4026,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>10</v>
@@ -4053,21 +4040,21 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4075,13 +4062,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>17</v>
@@ -4089,13 +4076,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -4103,7 +4090,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4111,13 +4098,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>17</v>
@@ -4125,13 +4112,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>17</v>
@@ -4139,13 +4126,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>69</v>
@@ -4153,13 +4140,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>17</v>
@@ -4167,13 +4154,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>17</v>
@@ -4186,11 +4173,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4228,7 +4215,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>223</v>
@@ -4239,7 +4226,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4278,7 +4265,7 @@
         <v>184</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>218</v>
@@ -4368,7 +4355,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>92</v>
@@ -4381,7 +4368,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4397,7 +4384,7 @@
         <v>219</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -4407,93 +4394,87 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
@@ -4503,13 +4484,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
@@ -4519,71 +4500,77 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
@@ -4593,319 +4580,191 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+        <v>244</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+        <v>254</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="3" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D49">
-    <sortCondition ref="A3:A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D41">
+    <sortCondition ref="A3:A41"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4998,7 +4857,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5034,7 +4893,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5056,7 +4915,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5106,7 +4965,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5128,7 +4987,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5177,9 +5036,9 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5228,7 +5087,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5404,7 +5263,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5468,7 +5327,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5658,7 +5517,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5680,7 +5539,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5887,7 +5746,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5895,7 +5754,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -5909,10 +5768,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>50</v>
@@ -5923,10 +5782,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>29</v>
@@ -5937,13 +5796,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -5951,10 +5810,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>50</v>
@@ -5965,7 +5824,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5973,13 +5832,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -5987,7 +5846,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5995,13 +5854,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -6009,13 +5868,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -6023,13 +5882,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
@@ -6037,13 +5896,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -6051,13 +5910,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -6065,7 +5924,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6073,7 +5932,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>194</v>
@@ -6087,21 +5946,21 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6109,13 +5968,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>233</v>
@@ -6123,13 +5982,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -6137,7 +5996,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6145,13 +6004,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
@@ -6193,7 +6052,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6221,10 +6080,10 @@
         <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -6232,7 +6091,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>92</v>
@@ -6246,10 +6105,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -6277,7 +6136,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -6288,7 +6147,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
@@ -6305,10 +6164,10 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -6316,10 +6175,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
@@ -6327,7 +6186,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6338,10 +6197,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>7</v>
@@ -6349,7 +6208,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6360,10 +6219,10 @@
         <v>174</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -6388,10 +6247,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -6402,10 +6261,10 @@
         <v>120</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -6416,7 +6275,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
@@ -6433,7 +6292,7 @@
         <v>137</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -6444,10 +6303,10 @@
         <v>103</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -6458,18 +6317,18 @@
         <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6480,7 +6339,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>50</v>
@@ -6494,10 +6353,10 @@
         <v>145</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>99</v>
@@ -6505,13 +6364,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>126</v>
@@ -6522,10 +6381,10 @@
         <v>147</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>107</v>
@@ -6536,13 +6395,13 @@
         <v>152</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -6550,18 +6409,18 @@
         <v>21</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -6569,13 +6428,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>17</v>
@@ -6583,7 +6442,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6594,10 +6453,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
@@ -6605,13 +6464,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>10</v>
@@ -6654,7 +6513,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6662,13 +6521,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -6676,13 +6535,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -6690,24 +6549,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -6718,10 +6577,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -6732,7 +6591,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6740,27 +6599,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>126</v>
@@ -6768,13 +6627,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -6782,7 +6641,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6790,27 +6649,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -6818,7 +6677,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6826,13 +6685,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -6840,7 +6699,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6848,13 +6707,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -6897,7 +6756,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6905,7 +6764,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>87</v>
@@ -6919,24 +6778,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
@@ -6950,10 +6809,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -6961,7 +6820,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>86</v>
@@ -6975,13 +6834,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -6989,13 +6848,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -7003,10 +6862,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>226</v>
@@ -7017,13 +6876,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -7034,7 +6893,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>226</v>
@@ -7048,10 +6907,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -7059,10 +6918,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>50</v>
@@ -7073,7 +6932,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7084,10 +6943,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -7095,27 +6954,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -7123,7 +6982,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7145,13 +7004,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -7162,10 +7021,10 @@
         <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -7173,10 +7032,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>50</v>
@@ -7193,7 +7052,7 @@
         <v>137</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -7201,27 +7060,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>126</v>
@@ -7229,13 +7088,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -7243,13 +7102,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>166</v>
@@ -7257,13 +7116,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>17</v>
@@ -7274,10 +7133,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>17</v>
@@ -7285,13 +7144,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>10</v>
@@ -7299,7 +7158,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7307,10 +7166,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>143</v>
@@ -7321,21 +7180,21 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7343,27 +7202,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>17</v>
@@ -7371,7 +7230,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -7379,13 +7238,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>25</v>
@@ -7436,10 +7295,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -7450,7 +7309,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7458,7 +7317,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -7472,10 +7331,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -7486,13 +7345,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -7500,10 +7359,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -7514,21 +7373,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7536,10 +7395,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>67</v>
@@ -7550,13 +7409,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -7564,13 +7423,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -7578,13 +7437,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF711442-DD80-194D-BCE9-13C14A3EA196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE203FEF-615E-2F4B-A6BD-C91679CD8E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1100" windowWidth="21160" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="1100" windowWidth="21160" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="622">
   <si>
     <t>Name</t>
   </si>
@@ -792,9 +792,6 @@
     <t>California Bank &amp; Trust</t>
   </si>
   <si>
-    <t>Corporate and Investmnet Bank Analyst</t>
-  </si>
-  <si>
     <t>New York City, NY</t>
   </si>
   <si>
@@ -1912,6 +1909,9 @@
   </si>
   <si>
     <t>University of California, Irvine</t>
+  </si>
+  <si>
+    <t>Sales and Trading Analyst</t>
   </si>
 </sst>
 </file>
@@ -2204,9 +2204,9 @@
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2331,36 +2331,36 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="A10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -2368,21 +2368,21 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2393,7 +2393,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>143</v>
@@ -2407,7 +2407,7 @@
         <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>143</v>
@@ -2471,7 +2471,7 @@
         <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>143</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2542,27 +2542,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -2598,13 +2598,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>226</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>35</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2662,21 +2662,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>462</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>104</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -2726,13 +2726,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -2740,13 +2740,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -2754,13 +2754,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -2768,13 +2768,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -2782,13 +2782,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -2796,13 +2796,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2818,13 +2818,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>201</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>25</v>
@@ -2854,13 +2854,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2876,13 +2876,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
@@ -2933,21 +2933,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>192</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>35</v>
@@ -3098,27 +3098,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>52</v>
@@ -3140,13 +3140,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3154,13 +3154,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3168,13 +3168,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -3182,13 +3182,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
@@ -3196,27 +3196,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>511</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -3224,21 +3224,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3246,13 +3246,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3260,13 +3260,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -3274,27 +3274,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -3302,27 +3302,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3338,13 +3338,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -3352,13 +3352,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -3366,35 +3366,35 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>531</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3402,27 +3402,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>69</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>549</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -3523,21 +3523,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -3551,24 +3551,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>551</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>196</v>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>554</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3623,13 +3623,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3637,13 +3637,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>244</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3716,13 +3716,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -3730,13 +3730,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -3744,13 +3744,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3758,13 +3758,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3772,10 +3772,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -3786,27 +3786,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>53</v>
@@ -3828,13 +3828,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -3842,27 +3842,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>575</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3870,13 +3870,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>577</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3892,27 +3892,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3928,13 +3928,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>589</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -3956,13 +3956,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>40</v>
@@ -3970,13 +3970,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -3984,13 +3984,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>596</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>17</v>
@@ -3998,27 +3998,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -4026,13 +4026,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>10</v>
@@ -4040,21 +4040,21 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4062,13 +4062,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>17</v>
@@ -4076,13 +4076,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4098,13 +4098,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>17</v>
@@ -4112,13 +4112,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>17</v>
@@ -4126,13 +4126,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>69</v>
@@ -4140,13 +4140,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>619</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>17</v>
@@ -4154,13 +4154,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>17</v>
@@ -4175,7 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
@@ -4215,7 +4215,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>223</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4243,7 +4243,7 @@
         <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -4265,7 +4265,7 @@
         <v>184</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>218</v>
@@ -4355,7 +4355,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>92</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4384,7 +4384,7 @@
         <v>219</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -4429,7 +4429,7 @@
         <v>212</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>240</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4522,7 +4522,7 @@
         <v>97</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>244</v>
@@ -4600,7 +4600,7 @@
         <v>237</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>244</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4672,7 +4672,7 @@
         <v>193</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>155</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5716,10 +5716,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D48177-9EF2-1D45-80EE-751A8F12EE03}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>50</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>29</v>
@@ -5796,13 +5796,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>50</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5832,13 +5832,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5854,13 +5854,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -5868,13 +5868,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -5882,13 +5882,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
@@ -5896,13 +5896,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -5910,13 +5910,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -5924,43 +5924,43 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>301</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5968,51 +5968,43 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A22" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6052,7 +6044,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6080,10 +6072,10 @@
         <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -6091,7 +6083,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>92</v>
@@ -6105,10 +6097,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -6136,7 +6128,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -6147,7 +6139,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
@@ -6164,10 +6156,10 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -6175,10 +6167,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
@@ -6186,7 +6178,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6197,10 +6189,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>7</v>
@@ -6208,7 +6200,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6219,10 +6211,10 @@
         <v>174</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -6247,10 +6239,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -6261,10 +6253,10 @@
         <v>120</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -6275,7 +6267,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
@@ -6292,7 +6284,7 @@
         <v>137</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -6303,10 +6295,10 @@
         <v>103</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -6317,18 +6309,18 @@
         <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6339,7 +6331,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>50</v>
@@ -6353,10 +6345,10 @@
         <v>145</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>99</v>
@@ -6364,13 +6356,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>126</v>
@@ -6381,10 +6373,10 @@
         <v>147</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>107</v>
@@ -6395,13 +6387,13 @@
         <v>152</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -6409,18 +6401,18 @@
         <v>21</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -6428,13 +6420,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>17</v>
@@ -6442,7 +6434,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6453,10 +6445,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
@@ -6464,13 +6456,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>10</v>
@@ -6513,7 +6505,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6521,13 +6513,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -6535,13 +6527,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -6549,24 +6541,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -6577,10 +6569,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -6591,7 +6583,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6599,27 +6591,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>126</v>
@@ -6627,13 +6619,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -6641,7 +6633,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6649,27 +6641,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -6677,7 +6669,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6685,13 +6677,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -6699,7 +6691,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6707,13 +6699,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -6756,7 +6748,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6764,7 +6756,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>87</v>
@@ -6778,24 +6770,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
@@ -6809,10 +6801,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -6820,7 +6812,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>86</v>
@@ -6834,13 +6826,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -6848,13 +6840,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -6862,10 +6854,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>226</v>
@@ -6876,13 +6868,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -6893,7 +6885,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>226</v>
@@ -6907,10 +6899,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -6918,10 +6910,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>50</v>
@@ -6932,7 +6924,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6943,10 +6935,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -6954,27 +6946,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -6982,7 +6974,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7004,13 +6996,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -7021,10 +7013,10 @@
         <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -7032,10 +7024,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>50</v>
@@ -7052,7 +7044,7 @@
         <v>137</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -7060,27 +7052,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>126</v>
@@ -7088,13 +7080,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -7102,13 +7094,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>166</v>
@@ -7116,13 +7108,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>17</v>
@@ -7133,10 +7125,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>17</v>
@@ -7144,13 +7136,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>10</v>
@@ -7158,7 +7150,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7166,10 +7158,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>143</v>
@@ -7180,21 +7172,21 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7202,27 +7194,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>17</v>
@@ -7230,7 +7222,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -7238,13 +7230,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>25</v>
@@ -7295,10 +7287,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -7309,7 +7301,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7317,7 +7309,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -7331,10 +7323,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -7345,13 +7337,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -7359,10 +7351,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -7373,21 +7365,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>441</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7395,10 +7387,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>67</v>
@@ -7409,13 +7401,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -7423,13 +7415,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -7437,13 +7429,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE203FEF-615E-2F4B-A6BD-C91679CD8E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F2D7F-D989-184B-96C9-44F26A6A477F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="1100" windowWidth="21160" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2206,7 +2206,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2331,36 +2331,36 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -2368,16 +2368,16 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>248</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F2D7F-D989-184B-96C9-44F26A6A477F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4CB9E4-5BD4-C240-AB24-E6FA5FA0352A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1100" windowWidth="21160" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="2240" windowWidth="21160" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId1"/>
-    <sheet name="Internships 2020" sheetId="4" r:id="rId2"/>
-    <sheet name="Full Time Offers 2019" sheetId="2" r:id="rId3"/>
-    <sheet name="Internships 2019" sheetId="1" r:id="rId4"/>
-    <sheet name="Full Time Offers 2018" sheetId="5" r:id="rId5"/>
-    <sheet name="Internships 2018" sheetId="6" r:id="rId6"/>
-    <sheet name="Full Time Offers 2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Internships 2017" sheetId="8" r:id="rId8"/>
-    <sheet name="Full Time Offers 2016" sheetId="9" r:id="rId9"/>
-    <sheet name="Internships 2016" sheetId="10" r:id="rId10"/>
-    <sheet name="Full Time Offers 2015" sheetId="11" r:id="rId11"/>
-    <sheet name="Internships 2015" sheetId="12" r:id="rId12"/>
-    <sheet name="Full Time Offers 2014" sheetId="13" r:id="rId13"/>
-    <sheet name="Internships 2014" sheetId="14" r:id="rId14"/>
+    <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId1"/>
+    <sheet name="Internships 2021" sheetId="16" r:id="rId2"/>
+    <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId3"/>
+    <sheet name="Internships 2020" sheetId="4" r:id="rId4"/>
+    <sheet name="Full Time Offers 2019" sheetId="2" r:id="rId5"/>
+    <sheet name="Internships 2019" sheetId="1" r:id="rId6"/>
+    <sheet name="Full Time Offers 2018" sheetId="5" r:id="rId7"/>
+    <sheet name="Internships 2018" sheetId="6" r:id="rId8"/>
+    <sheet name="Full Time Offers 2017" sheetId="7" r:id="rId9"/>
+    <sheet name="Internships 2017" sheetId="8" r:id="rId10"/>
+    <sheet name="Full Time Offers 2016" sheetId="9" r:id="rId11"/>
+    <sheet name="Internships 2016" sheetId="10" r:id="rId12"/>
+    <sheet name="Full Time Offers 2015" sheetId="11" r:id="rId13"/>
+    <sheet name="Internships 2015" sheetId="12" r:id="rId14"/>
+    <sheet name="Full Time Offers 2014" sheetId="13" r:id="rId15"/>
+    <sheet name="Internships 2014" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Internships 2020'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Internships 2020'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="631">
   <si>
     <t>Name</t>
   </si>
@@ -1912,6 +1914,33 @@
   </si>
   <si>
     <t>Sales and Trading Analyst</t>
+  </si>
+  <si>
+    <t>Investment Banking Analyst</t>
+  </si>
+  <si>
+    <t>Remote, US</t>
+  </si>
+  <si>
+    <t>Application &amp; Program Analyst</t>
+  </si>
+  <si>
+    <t>Associate Consultant</t>
+  </si>
+  <si>
+    <t>Bain &amp; Company</t>
+  </si>
+  <si>
+    <t>Consulting Intern</t>
+  </si>
+  <si>
+    <t>Rotational Research Intern</t>
+  </si>
+  <si>
+    <t>Green Street Advisors</t>
+  </si>
+  <si>
+    <t>2021 CADP Summer Analyst</t>
   </si>
 </sst>
 </file>
@@ -2198,15 +2227,2744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3CD6D6-8A13-7342-A149-99232F890266}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB25F1-A3D3-C841-A6F8-B5EF90040606}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031EB02-A95C-D74D-83A4-05A3491E58FE}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828FE577-CA0A-4842-B5D5-4380510CAFAE}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E70235-1E9E-6D40-88A1-194511DD28AA}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B4F89E-D6CA-6E4F-AF78-0C66C961479F}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F961FB61-98A8-094A-A8C7-0E7FF49BA3F7}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A3EEF-A80E-B44C-84DA-A35A16B83714}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2502,1676 +5260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828FE577-CA0A-4842-B5D5-4380510CAFAE}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E70235-1E9E-6D40-88A1-194511DD28AA}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B4F89E-D6CA-6E4F-AF78-0C66C961479F}">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F961FB61-98A8-094A-A8C7-0E7FF49BA3F7}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A3EEF-A80E-B44C-84DA-A35A16B83714}">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -4772,7 +5861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5029,7 +6118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5037,8 +6126,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5714,7 +6803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D48177-9EF2-1D45-80EE-751A8F12EE03}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -6013,7 +7102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B2E965-35C6-B34F-B96B-27E9F0AE48DD}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -6473,7 +7562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E244AA19-9506-B144-9EF7-AC6B1CF0AA3F}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -6714,734 +7803,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB25F1-A3D3-C841-A6F8-B5EF90040606}">
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031EB02-A95C-D74D-83A4-05A3491E58FE}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4CB9E4-5BD4-C240-AB24-E6FA5FA0352A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621CA4F-8933-CE4D-AC29-ADEF212707D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="2240" windowWidth="21160" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="631">
   <si>
     <t>Name</t>
   </si>
@@ -941,9 +941,6 @@
     <t>Sequoia</t>
   </si>
   <si>
-    <t>Technical</t>
-  </si>
-  <si>
     <t>Nathan Wang</t>
   </si>
   <si>
@@ -1941,6 +1938,9 @@
   </si>
   <si>
     <t>2021 CADP Summer Analyst</t>
+  </si>
+  <si>
+    <t>Product Marketing Manager</t>
   </si>
 </sst>
 </file>
@@ -2228,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3CD6D6-8A13-7342-A149-99232F890266}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2266,82 +2266,98 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>623</v>
+      <c r="D3" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>626</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>624</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>625</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>252</v>
+        <v>211</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
@@ -2350,7 +2366,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2386,7 +2402,7 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2405,6 +2421,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2465,16 +2499,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2482,7 +2516,7 @@
         <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
@@ -2496,10 +2530,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -2521,13 +2555,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -2538,7 +2572,7 @@
         <v>275</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>277</v>
@@ -2549,10 +2583,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>226</v>
@@ -2563,13 +2597,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -2580,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>226</v>
@@ -2594,7 +2628,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>262</v>
@@ -2608,7 +2642,7 @@
         <v>278</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>50</v>
@@ -2630,10 +2664,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -2641,13 +2675,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>258</v>
@@ -2655,13 +2689,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -2691,13 +2725,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -2708,10 +2742,10 @@
         <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -2739,7 +2773,7 @@
         <v>137</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -2747,21 +2781,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>137</v>
@@ -2775,13 +2809,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -2795,7 +2829,7 @@
         <v>97</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>166</v>
@@ -2803,13 +2837,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>17</v>
@@ -2820,10 +2854,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>17</v>
@@ -2831,13 +2865,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>10</v>
@@ -2853,10 +2887,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>143</v>
@@ -2867,7 +2901,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>153</v>
@@ -2876,7 +2910,7 @@
         <v>290</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -2889,27 +2923,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>267</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>17</v>
@@ -2917,7 +2951,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2925,13 +2959,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>25</v>
@@ -2982,10 +3016,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -3004,7 +3038,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -3018,7 +3052,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>274</v>
@@ -3032,13 +3066,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3046,10 +3080,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -3060,13 +3094,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>258</v>
@@ -3082,10 +3116,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>67</v>
@@ -3096,13 +3130,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -3110,13 +3144,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -3124,13 +3158,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>
@@ -3181,27 +3215,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -3209,7 +3243,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -3223,7 +3257,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -3237,13 +3271,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3254,7 +3288,7 @@
         <v>280</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>226</v>
@@ -3265,13 +3299,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -3279,7 +3313,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>35</v>
@@ -3304,10 +3338,10 @@
         <v>278</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>258</v>
@@ -3323,13 +3357,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -3337,13 +3371,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>104</v>
@@ -3357,7 +3391,7 @@
         <v>97</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -3365,13 +3399,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -3379,13 +3413,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -3399,7 +3433,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -3407,13 +3441,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -3424,10 +3458,10 @@
         <v>294</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -3435,13 +3469,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -3457,13 +3491,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>201</v>
@@ -3479,13 +3513,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>267</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>25</v>
@@ -3499,7 +3533,7 @@
         <v>266</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -3507,7 +3541,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3515,13 +3549,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
@@ -3572,16 +3606,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -3594,7 +3628,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -3608,10 +3642,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -3630,13 +3664,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3644,13 +3678,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>192</v>
@@ -3666,13 +3700,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>269</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -3723,7 +3757,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>35</v>
@@ -3737,27 +3771,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -3765,7 +3799,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>52</v>
@@ -3779,13 +3813,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -3793,13 +3827,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3807,13 +3841,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -3821,13 +3855,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
@@ -3835,13 +3869,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>258</v>
@@ -3849,13 +3883,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -3863,16 +3897,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3885,13 +3919,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -3899,13 +3933,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>515</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -3913,27 +3947,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -3941,27 +3975,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -3977,13 +4011,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -3991,13 +4025,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -4005,35 +4039,35 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>530</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4041,27 +4075,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>69</v>
@@ -4112,10 +4146,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -4126,10 +4160,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
@@ -4148,13 +4182,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -4162,10 +4196,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
@@ -4176,7 +4210,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -4190,21 +4224,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>274</v>
@@ -4226,10 +4260,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>196</v>
@@ -4240,13 +4274,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -4262,13 +4296,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -4276,13 +4310,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>244</v>
@@ -4333,13 +4367,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -4355,13 +4389,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -4369,13 +4403,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -4383,13 +4417,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -4397,13 +4431,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -4411,10 +4445,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -4425,27 +4459,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -4453,10 +4487,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>53</v>
@@ -4467,13 +4501,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>569</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -4481,27 +4515,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>277</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>574</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -4509,13 +4543,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>576</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -4531,27 +4565,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -4567,13 +4601,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -4581,13 +4615,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -4595,13 +4629,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>40</v>
@@ -4609,13 +4643,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -4623,13 +4657,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>17</v>
@@ -4637,27 +4671,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>601</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -4665,13 +4699,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>10</v>
@@ -4679,16 +4713,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -4701,13 +4735,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>17</v>
@@ -4715,13 +4749,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>610</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -4729,7 +4763,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4737,13 +4771,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>17</v>
@@ -4751,13 +4785,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>17</v>
@@ -4765,13 +4799,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>69</v>
@@ -4779,13 +4813,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>618</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>17</v>
@@ -4793,13 +4827,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>17</v>
@@ -4814,7 +4848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4853,13 +4887,13 @@
         <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -4875,13 +4909,13 @@
         <v>205</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4889,13 +4923,13 @@
         <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -4917,7 +4951,7 @@
         <v>143</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4964,7 +4998,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="A1:D22"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5093,7 +5127,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>186</v>
@@ -6808,7 +6842,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7021,13 +7055,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>233</v>
@@ -7035,13 +7069,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -7057,7 +7091,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>194</v>
@@ -7071,7 +7105,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>194</v>
@@ -7080,18 +7114,18 @@
         <v>290</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
@@ -7104,15 +7138,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B2E965-35C6-B34F-B96B-27E9F0AE48DD}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="4" width="36.83203125" customWidth="1"/>
   </cols>
@@ -7161,10 +7196,10 @@
         <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -7172,7 +7207,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>92</v>
@@ -7186,10 +7221,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -7217,7 +7252,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -7228,7 +7263,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
@@ -7245,10 +7280,10 @@
         <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -7256,10 +7291,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
@@ -7278,10 +7313,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>7</v>
@@ -7300,10 +7335,10 @@
         <v>174</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -7328,10 +7363,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -7342,10 +7377,10 @@
         <v>120</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -7356,7 +7391,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
@@ -7373,7 +7408,7 @@
         <v>137</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -7384,10 +7419,10 @@
         <v>103</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -7398,163 +7433,155 @@
         <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>348</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>344</v>
+        <v>50</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>345</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>348</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+        <v>337</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7602,13 +7629,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7616,13 +7643,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -7630,21 +7657,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>274</v>
@@ -7658,10 +7685,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -7680,27 +7707,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>126</v>
@@ -7708,13 +7735,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -7730,27 +7757,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -7766,13 +7793,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -7780,7 +7807,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7788,13 +7815,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621CA4F-8933-CE4D-AC29-ADEF212707D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD9C89-DF8F-1D43-BA88-C133F9792924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39440" yWindow="-5660" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="681">
   <si>
     <t>Name</t>
   </si>
@@ -1931,23 +1931,173 @@
     <t>Consulting Intern</t>
   </si>
   <si>
-    <t>Rotational Research Intern</t>
-  </si>
-  <si>
-    <t>Green Street Advisors</t>
-  </si>
-  <si>
     <t>2021 CADP Summer Analyst</t>
   </si>
   <si>
     <t>Product Marketing Manager</t>
+  </si>
+  <si>
+    <t>Tommy Truong</t>
+  </si>
+  <si>
+    <t>Summer Research Consulting Intern</t>
+  </si>
+  <si>
+    <t>Linda S. Congleton &amp; Associates</t>
+  </si>
+  <si>
+    <t>Sophomore Investment Banking Summer Analyst</t>
+  </si>
+  <si>
+    <t>Deutsche Bank</t>
+  </si>
+  <si>
+    <t>Aarti Vellimedu</t>
+  </si>
+  <si>
+    <t>2021 Summer Financial Analyst - Capital Finance</t>
+  </si>
+  <si>
+    <t>Portfolio Analyst Intern</t>
+  </si>
+  <si>
+    <t>NationalGrid</t>
+  </si>
+  <si>
+    <t>Private Equity Summer Analyst</t>
+  </si>
+  <si>
+    <t>Everstone Group</t>
+  </si>
+  <si>
+    <t>Darren Han</t>
+  </si>
+  <si>
+    <t>Private Equity Investment Intern</t>
+  </si>
+  <si>
+    <t>Pathway Capital Management</t>
+  </si>
+  <si>
+    <t>Cyber Risk Advisory Intern</t>
+  </si>
+  <si>
+    <t>Alex Pham</t>
+  </si>
+  <si>
+    <t>Project Management Intern</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>Beyond Limits AI</t>
+  </si>
+  <si>
+    <t>Brennen Wong</t>
+  </si>
+  <si>
+    <t>Systems Developer Intern</t>
+  </si>
+  <si>
+    <t>MarketMAPS</t>
+  </si>
+  <si>
+    <t>Sean Devine</t>
+  </si>
+  <si>
+    <t>Data Science Intern</t>
+  </si>
+  <si>
+    <t>IQVIA</t>
+  </si>
+  <si>
+    <t>Business Strategy &amp; Marketing Intern</t>
+  </si>
+  <si>
+    <t>Autodesk</t>
+  </si>
+  <si>
+    <t>Sales Development Representative</t>
+  </si>
+  <si>
+    <t>Slack Inc.</t>
+  </si>
+  <si>
+    <t>Sales Intern - Global Business Solutions</t>
+  </si>
+  <si>
+    <t>Consumer Product Retail Development Intern</t>
+  </si>
+  <si>
+    <t>NBCUniversal Media</t>
+  </si>
+  <si>
+    <t>Jessie Yang</t>
+  </si>
+  <si>
+    <t>Sales Analytics &amp; Sales Operations Intern</t>
+  </si>
+  <si>
+    <t>VEVO</t>
+  </si>
+  <si>
+    <t>Yeseo Han</t>
+  </si>
+  <si>
+    <t>Virtual HR &amp; Company</t>
+  </si>
+  <si>
+    <t>Kevin Cao</t>
+  </si>
+  <si>
+    <t>Social Media Manager Intern</t>
+  </si>
+  <si>
+    <t>OPTIS Group Holdings</t>
+  </si>
+  <si>
+    <t>Kelsie Kim</t>
+  </si>
+  <si>
+    <t>Marketing Administrative Assistant</t>
+  </si>
+  <si>
+    <t>DPM Link</t>
+  </si>
+  <si>
+    <t>University Talent Experience Intern</t>
+  </si>
+  <si>
+    <t>The Estée Lauder Companies</t>
+  </si>
+  <si>
+    <t>Amanda Nguyen</t>
+  </si>
+  <si>
+    <t>Business Development Intern</t>
+  </si>
+  <si>
+    <t>Oppti</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Acquisitions Analyst Intern</t>
+  </si>
+  <si>
+    <t>Next Wave Investors</t>
+  </si>
+  <si>
+    <t>Program Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1983,6 +2133,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2004,7 +2161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2013,6 +2170,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2230,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3CD6D6-8A13-7342-A149-99232F890266}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2243,26 +2401,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -2274,7 +2432,7 @@
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>622</v>
       </c>
     </row>
@@ -2321,7 +2479,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B7" s="3"/>
@@ -2333,43 +2491,58 @@
         <v>108</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="A9" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>621</v>
+        <v>680</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
@@ -4846,10 +5019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4861,26 +5034,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -4898,91 +5071,449 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4998,7 +5529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5008,29 +5539,31 @@
     <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5044,7 +5577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
@@ -5057,16 +5590,17 @@
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -5079,8 +5613,9 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -5093,8 +5628,9 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -5108,7 +5644,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -5121,8 +5657,9 @@
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -5136,15 +5673,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>96</v>
       </c>
@@ -5158,7 +5695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
@@ -5172,15 +5709,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -5193,8 +5731,9 @@
       <c r="D15" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>141</v>
       </c>
@@ -5207,6 +5746,7 @@
       <c r="D16" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -5271,6 +5811,7 @@
       <c r="D19" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -5285,6 +5826,7 @@
       <c r="D20" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
@@ -5298,9 +5840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5326,7 +5868,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
@@ -5348,7 +5890,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="3"/>
@@ -5490,7 +6032,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="3"/>
@@ -5564,7 +6106,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="3"/>
@@ -5730,7 +6272,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B30" s="3"/>
@@ -5780,7 +6322,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B34" s="3"/>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/dspuci-website-gatsby/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD9C89-DF8F-1D43-BA88-C133F9792924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF154866-761C-1E49-B765-73E1C24F1936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39440" yWindow="-5660" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="690">
   <si>
     <t>Name</t>
   </si>
@@ -2081,9 +2081,6 @@
     <t>Oppti</t>
   </si>
   <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
     <t>Acquisitions Analyst Intern</t>
   </si>
   <si>
@@ -2091,6 +2088,36 @@
   </si>
   <si>
     <t>Program Manager</t>
+  </si>
+  <si>
+    <t>Lab Manager</t>
+  </si>
+  <si>
+    <t>UCI School of Biological Sciences</t>
+  </si>
+  <si>
+    <t>Media Coordinator</t>
+  </si>
+  <si>
+    <t>Recruitics</t>
+  </si>
+  <si>
+    <t>UX E-Commerce Coordinator</t>
+  </si>
+  <si>
+    <t>Princess Polly</t>
+  </si>
+  <si>
+    <t>Finance Associate</t>
+  </si>
+  <si>
+    <t>Torrey Pines Bank</t>
+  </si>
+  <si>
+    <t>Audit and Assurance Associate</t>
+  </si>
+  <si>
+    <t>Risk and Financial Advisor</t>
   </si>
 </sst>
 </file>
@@ -2386,16 +2413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3CD6D6-8A13-7342-A149-99232F890266}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" customWidth="1"/>
   </cols>
@@ -2424,7 +2451,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>623</v>
@@ -2438,13 +2465,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>625</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>622</v>
@@ -2452,142 +2479,192 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>625</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8" t="s">
+        <v>255</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2611,7 +2688,58 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5019,10 +5147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5093,13 +5221,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>205</v>
+        <v>634</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>632</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>633</v>
+        <v>290</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>622</v>
@@ -5107,27 +5235,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>186</v>
+        <v>639</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>634</v>
+      <c r="A8" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>641</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>290</v>
+        <v>642</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>622</v>
@@ -5148,42 +5276,42 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>210</v>
+      <c r="A10" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>633</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>207</v>
+      <c r="A11" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>405</v>
+        <v>627</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>637</v>
+        <v>186</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>202</v>
+      <c r="A12" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>638</v>
+        <v>405</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>622</v>
@@ -5191,155 +5319,155 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>640</v>
+        <v>210</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>642</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>622</v>
-      </c>
-    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>622</v>
-      </c>
+      <c r="A19" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>659</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>648</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D22" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>206</v>
+        <v>669</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>622</v>
@@ -5347,13 +5475,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>124</v>
+        <v>666</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>622</v>
@@ -5361,13 +5489,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>229</v>
+        <v>657</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>622</v>
@@ -5375,147 +5503,232 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>203</v>
+        <v>664</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>659</v>
+        <v>325</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="A28" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="A29" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D30" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="A31" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="A33" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="A34" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="A35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:D49">
+    <sortCondition ref="A47:A49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5840,7 +6053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/dspuci-website-gatsby/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF154866-761C-1E49-B765-73E1C24F1936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155AC0FB-A65C-3D4B-AD72-D0877636932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32140" yWindow="8540" windowWidth="30900" windowHeight="18100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="689">
   <si>
     <t>Name</t>
   </si>
@@ -2075,12 +2075,6 @@
     <t>Amanda Nguyen</t>
   </si>
   <si>
-    <t>Business Development Intern</t>
-  </si>
-  <si>
-    <t>Oppti</t>
-  </si>
-  <si>
     <t>Acquisitions Analyst Intern</t>
   </si>
   <si>
@@ -2118,6 +2112,9 @@
   </si>
   <si>
     <t>Risk and Financial Advisor</t>
+  </si>
+  <si>
+    <t>Strathspey Crown Holdings LLC</t>
   </si>
 </sst>
 </file>
@@ -2415,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3CD6D6-8A13-7342-A149-99232F890266}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2518,7 +2515,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>92</v>
@@ -2535,7 +2532,7 @@
         <v>246</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>622</v>
@@ -2546,7 +2543,7 @@
         <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>221</v>
@@ -2560,7 +2557,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>92</v>
@@ -2596,10 +2593,10 @@
         <v>208</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>622</v>
@@ -2610,10 +2607,10 @@
         <v>209</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>622</v>
@@ -2632,10 +2629,10 @@
         <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>622</v>
@@ -2654,7 +2651,7 @@
         <v>167</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>188</v>
@@ -5149,8 +5146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5336,10 +5333,10 @@
         <v>213</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>622</v>
@@ -5355,13 +5352,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>674</v>
+        <v>133</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>676</v>
+        <v>231</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>622</v>
@@ -5369,49 +5366,49 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>672</v>
+        <v>267</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>231</v>
+        <v>673</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>203</v>
+        <v>674</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>659</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>622</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155AC0FB-A65C-3D4B-AD72-D0877636932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0481FF66-2409-1043-8575-D5E4B932B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32140" yWindow="8540" windowWidth="30900" windowHeight="18100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId1"/>
@@ -4406,10 +4406,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F961FB61-98A8-094A-A8C7-0E7FF49BA3F7}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4420,7 +4420,7 @@
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>544</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>546</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>252</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>535</v>
       </c>
@@ -4492,21 +4492,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>539</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>540</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>543</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
@@ -4556,7 +4557,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>548</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>550</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>255</v>
       </c>
@@ -4592,7 +4593,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>522</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>555</v>
       </c>
@@ -5146,7 +5147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -8346,7 +8347,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0481FF66-2409-1043-8575-D5E4B932B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93308614-EFB4-AC48-A536-C19D64300F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4409,7 +4409,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,37 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93308614-EFB4-AC48-A536-C19D64300F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED623955-8E52-4EF8-9C4B-4FB0E91360F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId1"/>
-    <sheet name="Internships 2021" sheetId="16" r:id="rId2"/>
-    <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId3"/>
-    <sheet name="Internships 2020" sheetId="4" r:id="rId4"/>
-    <sheet name="Full Time Offers 2019" sheetId="2" r:id="rId5"/>
-    <sheet name="Internships 2019" sheetId="1" r:id="rId6"/>
-    <sheet name="Full Time Offers 2018" sheetId="5" r:id="rId7"/>
-    <sheet name="Internships 2018" sheetId="6" r:id="rId8"/>
-    <sheet name="Full Time Offers 2017" sheetId="7" r:id="rId9"/>
-    <sheet name="Internships 2017" sheetId="8" r:id="rId10"/>
-    <sheet name="Full Time Offers 2016" sheetId="9" r:id="rId11"/>
-    <sheet name="Internships 2016" sheetId="10" r:id="rId12"/>
-    <sheet name="Full Time Offers 2015" sheetId="11" r:id="rId13"/>
-    <sheet name="Internships 2015" sheetId="12" r:id="rId14"/>
-    <sheet name="Full Time Offers 2014" sheetId="13" r:id="rId15"/>
-    <sheet name="Internships 2014" sheetId="14" r:id="rId16"/>
+    <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
+    <sheet name="Internships 2022" sheetId="19" r:id="rId2"/>
+    <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId3"/>
+    <sheet name="Internships 2021" sheetId="16" r:id="rId4"/>
+    <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId5"/>
+    <sheet name="Internships 2020" sheetId="4" r:id="rId6"/>
+    <sheet name="Full Time Offers 2019" sheetId="2" r:id="rId7"/>
+    <sheet name="Internships 2019" sheetId="1" r:id="rId8"/>
+    <sheet name="Full Time Offers 2018" sheetId="5" r:id="rId9"/>
+    <sheet name="Internships 2018" sheetId="6" r:id="rId10"/>
+    <sheet name="Full Time Offers 2017" sheetId="7" r:id="rId11"/>
+    <sheet name="Internships 2017" sheetId="8" r:id="rId12"/>
+    <sheet name="Full Time Offers 2016" sheetId="9" r:id="rId13"/>
+    <sheet name="Internships 2016" sheetId="10" r:id="rId14"/>
+    <sheet name="Full Time Offers 2015" sheetId="11" r:id="rId15"/>
+    <sheet name="Internships 2015" sheetId="12" r:id="rId16"/>
+    <sheet name="Full Time Offers 2014" sheetId="13" r:id="rId17"/>
+    <sheet name="Internships 2014" sheetId="14" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Internships 2020'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Internships 2020'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="709">
   <si>
     <t>Name</t>
   </si>
@@ -2115,6 +2117,66 @@
   </si>
   <si>
     <t>Strathspey Crown Holdings LLC</t>
+  </si>
+  <si>
+    <t>Suman Gujju</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McKinsey &amp; Company </t>
+  </si>
+  <si>
+    <t>Strategic Sales Coordinator</t>
+  </si>
+  <si>
+    <t>Global Liquidity Summer Analyst</t>
+  </si>
+  <si>
+    <t>JP Morgan</t>
+  </si>
+  <si>
+    <t>New York, US</t>
+  </si>
+  <si>
+    <t>Summer Associate</t>
+  </si>
+  <si>
+    <t>AlphaSights</t>
+  </si>
+  <si>
+    <t>External Audit Intern</t>
+  </si>
+  <si>
+    <t>PwC</t>
+  </si>
+  <si>
+    <t>Emerging Talent Program Specialist</t>
+  </si>
+  <si>
+    <t>Vmware</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>Coinbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance Rotation Program Analyst </t>
+  </si>
+  <si>
+    <t>Veeva</t>
+  </si>
+  <si>
+    <t>Solutions Engineering Intern</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
   </si>
 </sst>
 </file>
@@ -2409,6 +2471,3588 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B2E965-35C6-B34F-B96B-27E9F0AE48DD}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E244AA19-9506-B144-9EF7-AC6B1CF0AA3F}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB25F1-A3D3-C841-A6F8-B5EF90040606}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031EB02-A95C-D74D-83A4-05A3491E58FE}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828FE577-CA0A-4842-B5D5-4380510CAFAE}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E70235-1E9E-6D40-88A1-194511DD28AA}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B4F89E-D6CA-6E4F-AF78-0C66C961479F}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F961FB61-98A8-094A-A8C7-0E7FF49BA3F7}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A3EEF-A80E-B44C-84DA-A35A16B83714}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="51.36328125" customWidth="1"/>
+    <col min="3" max="3" width="41.36328125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3CD6D6-8A13-7342-A149-99232F890266}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -2416,15 +6060,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +6082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -2446,7 +6090,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -2460,7 +6104,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -2474,7 +6118,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>211</v>
       </c>
@@ -2488,7 +6132,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>252</v>
       </c>
@@ -2496,7 +6140,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -2510,7 +6154,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -2524,7 +6168,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>184</v>
       </c>
@@ -2538,7 +6182,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -2552,7 +6196,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -2566,7 +6210,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>254</v>
       </c>
@@ -2574,7 +6218,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
@@ -2588,7 +6232,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>208</v>
       </c>
@@ -2602,7 +6246,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>209</v>
       </c>
@@ -2616,7 +6260,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>253</v>
       </c>
@@ -2624,7 +6268,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>204</v>
       </c>
@@ -2638,7 +6282,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>255</v>
       </c>
@@ -2646,7 +6290,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -2660,82 +6304,82 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
   </sheetData>
@@ -2743,2445 +6387,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB25F1-A3D3-C841-A6F8-B5EF90040606}">
-  <dimension ref="A1:D39"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031EB02-A95C-D74D-83A4-05A3491E58FE}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828FE577-CA0A-4842-B5D5-4380510CAFAE}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E70235-1E9E-6D40-88A1-194511DD28AA}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B4F89E-D6CA-6E4F-AF78-0C66C961479F}">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="51.36328125" customWidth="1"/>
+    <col min="3" max="3" width="41.36328125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F961FB61-98A8-094A-A8C7-0E7FF49BA3F7}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A3EEF-A80E-B44C-84DA-A35A16B83714}">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>178</v>
       </c>
@@ -5195,7 +6439,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>629</v>
       </c>
@@ -5209,7 +6453,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -5217,7 +6461,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>634</v>
       </c>
@@ -5231,7 +6475,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>202</v>
       </c>
@@ -5245,7 +6489,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>640</v>
       </c>
@@ -5259,7 +6503,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -5273,7 +6517,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>205</v>
       </c>
@@ -5287,7 +6531,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -5301,7 +6545,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>207</v>
       </c>
@@ -5315,7 +6559,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>210</v>
       </c>
@@ -5329,7 +6573,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>213</v>
       </c>
@@ -5343,7 +6587,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>256</v>
       </c>
@@ -5351,7 +6595,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
@@ -5365,7 +6609,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>212</v>
       </c>
@@ -5379,7 +6623,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>254</v>
       </c>
@@ -5387,7 +6631,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>203</v>
       </c>
@@ -5401,7 +6645,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>674</v>
       </c>
@@ -5415,7 +6659,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>136</v>
       </c>
@@ -5429,7 +6673,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>661</v>
       </c>
@@ -5443,7 +6687,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>206</v>
       </c>
@@ -5457,7 +6701,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>669</v>
       </c>
@@ -5471,7 +6715,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>666</v>
       </c>
@@ -5485,7 +6729,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>124</v>
       </c>
@@ -5499,7 +6743,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>664</v>
       </c>
@@ -5513,7 +6757,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>255</v>
       </c>
@@ -5521,7 +6765,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>644</v>
       </c>
@@ -5535,7 +6779,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>648</v>
       </c>
@@ -5549,7 +6793,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>198</v>
       </c>
@@ -5563,7 +6807,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -5577,7 +6821,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>160</v>
       </c>
@@ -5591,7 +6835,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>190</v>
       </c>
@@ -5605,7 +6849,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>163</v>
       </c>
@@ -5619,7 +6863,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>651</v>
       </c>
@@ -5633,91 +6877,91 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5731,7 +6975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5743,14 +6987,14 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="40.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5765,7 +7009,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -5774,7 +7018,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5788,7 +7032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
@@ -5803,7 +7047,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -5811,7 +7055,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -5826,7 +7070,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -5841,7 +7085,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -5855,7 +7099,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -5870,7 +7114,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -5884,7 +7128,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
@@ -5892,7 +7136,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>96</v>
       </c>
@@ -5906,7 +7150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
@@ -5920,7 +7164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
@@ -5929,7 +7173,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -5944,7 +7188,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>141</v>
       </c>
@@ -5959,7 +7203,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
@@ -5973,7 +7217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>147</v>
       </c>
@@ -6009,7 +7253,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>152</v>
       </c>
@@ -6024,7 +7268,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>156</v>
       </c>
@@ -6047,7 +7291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -6056,15 +7300,15 @@
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6078,7 +7322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -6086,7 +7330,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -6100,7 +7344,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>252</v>
       </c>
@@ -6108,7 +7352,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -6122,7 +7366,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -6136,7 +7380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>184</v>
       </c>
@@ -6150,7 +7394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -6164,7 +7408,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -6178,7 +7422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>205</v>
       </c>
@@ -6194,7 +7438,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -6210,7 +7454,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>213</v>
       </c>
@@ -6226,7 +7470,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -6242,7 +7486,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>256</v>
       </c>
@@ -6252,7 +7496,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>204</v>
       </c>
@@ -6268,7 +7512,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>136</v>
       </c>
@@ -6284,7 +7528,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>133</v>
       </c>
@@ -6300,7 +7544,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>212</v>
       </c>
@@ -6316,7 +7560,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>254</v>
       </c>
@@ -6326,7 +7570,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>203</v>
       </c>
@@ -6342,7 +7586,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>115</v>
       </c>
@@ -6358,7 +7602,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -6374,7 +7618,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -6390,7 +7634,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>206</v>
       </c>
@@ -6406,7 +7650,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
@@ -6422,7 +7666,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>208</v>
       </c>
@@ -6438,7 +7682,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>209</v>
       </c>
@@ -6454,7 +7698,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>178</v>
       </c>
@@ -6468,7 +7712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>210</v>
       </c>
@@ -6482,7 +7726,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>253</v>
       </c>
@@ -6490,7 +7734,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>202</v>
       </c>
@@ -6504,7 +7748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>207</v>
       </c>
@@ -6518,7 +7762,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>211</v>
       </c>
@@ -6532,7 +7776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>255</v>
       </c>
@@ -6540,7 +7784,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>170</v>
       </c>
@@ -6554,7 +7798,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>198</v>
       </c>
@@ -6568,7 +7812,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>158</v>
       </c>
@@ -6582,7 +7826,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>160</v>
       </c>
@@ -6596,7 +7840,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>190</v>
       </c>
@@ -6610,7 +7854,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>163</v>
       </c>
@@ -6624,7 +7868,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
@@ -6648,7 +7892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6660,14 +7904,14 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6681,7 +7925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -6689,7 +7933,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
@@ -6703,7 +7947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -6717,7 +7961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -6731,7 +7975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>252</v>
       </c>
@@ -6739,7 +7983,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -6753,7 +7997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -6767,7 +8011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>256</v>
       </c>
@@ -6775,7 +8019,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -6789,7 +8033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
@@ -6797,7 +8041,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -6811,7 +8055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
@@ -6825,7 +8069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
@@ -6839,7 +8083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>253</v>
       </c>
@@ -6847,7 +8091,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
@@ -6861,7 +8105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>255</v>
       </c>
@@ -6869,7 +8113,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
@@ -6883,7 +8127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>62</v>
       </c>
@@ -6905,7 +8149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6917,15 +8161,15 @@
       <selection pane="bottomLeft" activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6939,7 +8183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -6947,7 +8191,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
@@ -6961,7 +8205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -6969,7 +8213,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -6983,7 +8227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -6997,7 +8241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
@@ -7011,7 +8255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>90</v>
       </c>
@@ -7025,7 +8269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -7039,7 +8283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -7053,7 +8297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -7067,7 +8311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -7081,7 +8325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>88</v>
       </c>
@@ -7095,7 +8339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -7109,7 +8353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -7123,7 +8367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
@@ -7137,7 +8381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>256</v>
       </c>
@@ -7145,7 +8389,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>184</v>
       </c>
@@ -7159,7 +8403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>174</v>
       </c>
@@ -7173,7 +8417,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>181</v>
       </c>
@@ -7187,7 +8431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>178</v>
       </c>
@@ -7201,7 +8445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>254</v>
       </c>
@@ -7209,7 +8453,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>75</v>
       </c>
@@ -7223,7 +8467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -7237,7 +8481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>127</v>
       </c>
@@ -7251,7 +8495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>117</v>
       </c>
@@ -7265,7 +8509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>130</v>
       </c>
@@ -7279,7 +8523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>96</v>
       </c>
@@ -7293,7 +8537,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>108</v>
       </c>
@@ -7307,7 +8551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>133</v>
       </c>
@@ -7321,7 +8565,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -7335,7 +8579,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>100</v>
       </c>
@@ -7349,7 +8593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>124</v>
       </c>
@@ -7363,7 +8607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>103</v>
       </c>
@@ -7377,7 +8621,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>138</v>
       </c>
@@ -7391,7 +8635,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>253</v>
       </c>
@@ -7399,7 +8643,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -7413,7 +8657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>255</v>
       </c>
@@ -7421,7 +8665,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>170</v>
       </c>
@@ -7435,7 +8679,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>145</v>
       </c>
@@ -7449,7 +8693,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>158</v>
       </c>
@@ -7463,7 +8707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>141</v>
       </c>
@@ -7477,7 +8721,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>160</v>
       </c>
@@ -7491,7 +8735,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>151</v>
       </c>
@@ -7505,7 +8749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>163</v>
       </c>
@@ -7519,7 +8763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>147</v>
       </c>
@@ -7533,7 +8777,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>152</v>
       </c>
@@ -7547,7 +8791,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>156</v>
       </c>
@@ -7561,7 +8805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>167</v>
       </c>
@@ -7575,7 +8819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -7590,7 +8834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D48177-9EF2-1D45-80EE-751A8F12EE03}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -7598,15 +8842,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7620,7 +8864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -7628,7 +8872,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>270</v>
       </c>
@@ -7642,7 +8886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>271</v>
       </c>
@@ -7656,7 +8900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>273</v>
       </c>
@@ -7670,7 +8914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>275</v>
       </c>
@@ -7684,7 +8928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>278</v>
       </c>
@@ -7698,7 +8942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>253</v>
       </c>
@@ -7706,7 +8950,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>280</v>
       </c>
@@ -7720,7 +8964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>254</v>
       </c>
@@ -7728,7 +8972,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>283</v>
       </c>
@@ -7742,7 +8986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>285</v>
       </c>
@@ -7756,7 +9000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>288</v>
       </c>
@@ -7770,7 +9014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>291</v>
       </c>
@@ -7784,7 +9028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>294</v>
       </c>
@@ -7798,7 +9042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>256</v>
       </c>
@@ -7806,7 +9050,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>300</v>
       </c>
@@ -7820,7 +9064,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>303</v>
       </c>
@@ -7834,7 +9078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
@@ -7842,7 +9086,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>297</v>
       </c>
@@ -7856,7 +9100,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>298</v>
       </c>
@@ -7870,7 +9114,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>307</v>
       </c>
@@ -7882,702 +9126,6 @@
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B2E965-35C6-B34F-B96B-27E9F0AE48DD}">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E244AA19-9506-B144-9EF7-AC6B1CF0AA3F}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED623955-8E52-4EF8-9C4B-4FB0E91360F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E64A96F-B8A2-4AB1-982F-1CBAED2179AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="713">
   <si>
     <t>Name</t>
   </si>
@@ -2177,6 +2177,18 @@
   </si>
   <si>
     <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Strategic Finance Intern</t>
+  </si>
+  <si>
+    <t>Ultra Mint Mobile</t>
+  </si>
+  <si>
+    <t>Costa Mesa, US</t>
+  </si>
+  <si>
+    <t>Application Program Analyst Intern</t>
   </si>
 </sst>
 </file>
@@ -5813,10 +5825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5851,132 +5863,156 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>689</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>622</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>708</v>
+        <v>697</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6011,8 +6047,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6029,14 +6065,14 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6047,8 +6083,27 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E64A96F-B8A2-4AB1-982F-1CBAED2179AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57ACAE-E858-47C5-A862-CE5A58F24ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="716">
   <si>
     <t>Name</t>
   </si>
@@ -2189,6 +2189,15 @@
   </si>
   <si>
     <t>Application Program Analyst Intern</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>California Crescent Fund</t>
   </si>
 </sst>
 </file>
@@ -5825,10 +5834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5984,38 +5993,40 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B15" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -6059,14 +6070,14 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6083,23 +6094,17 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57ACAE-E858-47C5-A862-CE5A58F24ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D434EE4E-878E-F64E-AFA2-2C7C1D1EEB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="716">
   <si>
     <t>Name</t>
   </si>
@@ -2191,13 +2191,13 @@
     <t>Application Program Analyst Intern</t>
   </si>
   <si>
-    <t>VC</t>
-  </si>
-  <si>
     <t>Partner</t>
   </si>
   <si>
     <t>California Crescent Fund</t>
+  </si>
+  <si>
+    <t>Venture Capital</t>
   </si>
 </sst>
 </file>
@@ -2499,15 +2499,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="40.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>178</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>256</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>252</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>254</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>124</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>136</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>255</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>158</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
@@ -2659,76 +2659,76 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
     </row>
   </sheetData>
@@ -2744,15 +2744,15 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>75</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>90</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>73</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>253</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>79</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>254</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>174</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>108</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>120</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>103</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>256</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>348</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>255</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>353</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>145</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>337</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>147</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>152</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>21</v>
       </c>
@@ -3197,15 +3197,15 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>356</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>359</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>361</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>365</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>366</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>253</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>368</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>372</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>375</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>254</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>378</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>381</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>256</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>384</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>306</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>387</v>
       </c>
@@ -3440,15 +3440,15 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>270</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>356</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>271</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>273</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>337</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>275</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>399</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>401</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>278</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>253</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>174</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>353</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>408</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>254</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>411</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>285</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>103</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>414</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>417</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>348</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>294</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>307</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>423</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>255</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>297</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>298</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>256</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>300</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>303</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>306</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>429</v>
       </c>
@@ -3971,15 +3971,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>440</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>432</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>365</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>433</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>366</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>437</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>254</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>378</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>443</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>446</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>449</v>
       </c>
@@ -4170,15 +4170,15 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -4200,7 +4200,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>356</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>359</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>361</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>432</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>365</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>280</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>366</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>437</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>253</v>
       </c>
@@ -4320,7 +4320,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>278</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>254</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>378</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>353</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>285</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>401</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>429</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>291</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>375</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>294</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>307</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>255</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>297</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>256</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>384</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>273</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>306</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>387</v>
       </c>
@@ -4561,15 +4561,15 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>490</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>479</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>480</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>254</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>482</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>485</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>253</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>488</v>
       </c>
@@ -4712,15 +4712,15 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>488</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>494</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>497</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>500</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>365</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>387</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>504</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>507</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>440</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>366</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>437</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>254</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>378</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>513</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>443</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>446</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>518</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>449</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>255</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>522</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>524</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>527</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>298</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>306</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>530</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>533</v>
       </c>
@@ -5101,15 +5101,15 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>544</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>546</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>252</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>535</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>538</v>
       </c>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>539</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>540</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>543</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>548</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>550</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>255</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>522</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>555</v>
       </c>
@@ -5323,15 +5323,15 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>576</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>479</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>494</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>513</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>490</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>560</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>561</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>564</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>480</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>566</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>569</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>572</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>574</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>253</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>579</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>583</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>254</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>482</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>485</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>588</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>591</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>593</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>518</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>598</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>601</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>604</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>256</v>
       </c>
@@ -5721,7 +5721,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>359</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>524</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>306</v>
       </c>
@@ -5757,7 +5757,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>610</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>613</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>527</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>533</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>618</v>
       </c>
@@ -5834,21 +5834,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="51.36328125" customWidth="1"/>
-    <col min="3" max="3" width="41.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>689</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>205</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>205</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>210</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>210</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>253</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>629</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>255</v>
       </c>
@@ -5992,119 +5992,133 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6120,15 +6134,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="40.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6142,7 +6156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -6150,7 +6164,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -6164,7 +6178,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -6178,7 +6192,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>211</v>
       </c>
@@ -6192,7 +6206,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>252</v>
       </c>
@@ -6200,7 +6214,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -6214,7 +6228,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -6228,7 +6242,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>184</v>
       </c>
@@ -6242,7 +6256,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -6256,7 +6270,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -6270,7 +6284,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>254</v>
       </c>
@@ -6278,7 +6292,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
@@ -6292,7 +6306,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>208</v>
       </c>
@@ -6306,7 +6320,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>209</v>
       </c>
@@ -6320,7 +6334,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>253</v>
       </c>
@@ -6328,7 +6342,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>204</v>
       </c>
@@ -6342,7 +6356,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>255</v>
       </c>
@@ -6350,7 +6364,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -6364,82 +6378,82 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
     </row>
   </sheetData>
@@ -6455,15 +6469,15 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="51.36328125" customWidth="1"/>
-    <col min="3" max="3" width="41.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6477,7 +6491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -6485,7 +6499,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>178</v>
       </c>
@@ -6499,7 +6513,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>629</v>
       </c>
@@ -6513,7 +6527,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -6521,7 +6535,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>634</v>
       </c>
@@ -6535,7 +6549,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>202</v>
       </c>
@@ -6549,7 +6563,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>640</v>
       </c>
@@ -6563,7 +6577,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -6577,7 +6591,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>205</v>
       </c>
@@ -6591,7 +6605,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -6605,7 +6619,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>207</v>
       </c>
@@ -6619,7 +6633,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>210</v>
       </c>
@@ -6633,7 +6647,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>213</v>
       </c>
@@ -6647,7 +6661,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>256</v>
       </c>
@@ -6655,7 +6669,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
@@ -6669,7 +6683,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>212</v>
       </c>
@@ -6683,7 +6697,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>254</v>
       </c>
@@ -6691,7 +6705,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>203</v>
       </c>
@@ -6705,7 +6719,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>674</v>
       </c>
@@ -6719,7 +6733,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>136</v>
       </c>
@@ -6733,7 +6747,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>661</v>
       </c>
@@ -6747,7 +6761,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>206</v>
       </c>
@@ -6761,7 +6775,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>669</v>
       </c>
@@ -6775,7 +6789,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>666</v>
       </c>
@@ -6789,7 +6803,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>124</v>
       </c>
@@ -6803,7 +6817,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>664</v>
       </c>
@@ -6817,7 +6831,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>255</v>
       </c>
@@ -6825,7 +6839,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>644</v>
       </c>
@@ -6839,7 +6853,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>648</v>
       </c>
@@ -6853,7 +6867,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>198</v>
       </c>
@@ -6867,7 +6881,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -6881,7 +6895,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>160</v>
       </c>
@@ -6895,7 +6909,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>190</v>
       </c>
@@ -6909,7 +6923,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>163</v>
       </c>
@@ -6923,7 +6937,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>651</v>
       </c>
@@ -6937,91 +6951,91 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7047,14 +7061,14 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="40.36328125" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7069,7 +7083,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -7078,7 +7092,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -7092,7 +7106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
@@ -7107,7 +7121,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -7115,7 +7129,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -7130,7 +7144,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -7145,7 +7159,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -7159,7 +7173,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -7174,7 +7188,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -7188,7 +7202,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
@@ -7196,7 +7210,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>96</v>
       </c>
@@ -7210,7 +7224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
@@ -7224,7 +7238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
@@ -7233,7 +7247,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -7248,7 +7262,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>141</v>
       </c>
@@ -7263,7 +7277,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
@@ -7277,7 +7291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>147</v>
       </c>
@@ -7313,7 +7327,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>152</v>
       </c>
@@ -7328,7 +7342,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>156</v>
       </c>
@@ -7360,15 +7374,15 @@
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7382,7 +7396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -7390,7 +7404,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7404,7 +7418,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>252</v>
       </c>
@@ -7412,7 +7426,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -7426,7 +7440,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -7440,7 +7454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>184</v>
       </c>
@@ -7454,7 +7468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -7468,7 +7482,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -7482,7 +7496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>205</v>
       </c>
@@ -7498,7 +7512,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -7514,7 +7528,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>213</v>
       </c>
@@ -7530,7 +7544,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -7546,7 +7560,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>256</v>
       </c>
@@ -7556,7 +7570,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>204</v>
       </c>
@@ -7572,7 +7586,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>136</v>
       </c>
@@ -7588,7 +7602,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>133</v>
       </c>
@@ -7604,7 +7618,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>212</v>
       </c>
@@ -7620,7 +7634,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>254</v>
       </c>
@@ -7630,7 +7644,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>203</v>
       </c>
@@ -7646,7 +7660,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>115</v>
       </c>
@@ -7662,7 +7676,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -7678,7 +7692,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -7694,7 +7708,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>206</v>
       </c>
@@ -7710,7 +7724,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
@@ -7726,7 +7740,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>208</v>
       </c>
@@ -7742,7 +7756,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>209</v>
       </c>
@@ -7758,7 +7772,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>178</v>
       </c>
@@ -7772,7 +7786,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>210</v>
       </c>
@@ -7786,7 +7800,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>253</v>
       </c>
@@ -7794,7 +7808,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>202</v>
       </c>
@@ -7808,7 +7822,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>207</v>
       </c>
@@ -7822,7 +7836,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>211</v>
       </c>
@@ -7836,7 +7850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>255</v>
       </c>
@@ -7844,7 +7858,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>170</v>
       </c>
@@ -7858,7 +7872,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>198</v>
       </c>
@@ -7872,7 +7886,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>158</v>
       </c>
@@ -7886,7 +7900,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>160</v>
       </c>
@@ -7900,7 +7914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>190</v>
       </c>
@@ -7914,7 +7928,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>163</v>
       </c>
@@ -7928,7 +7942,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
@@ -7964,14 +7978,14 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7985,7 +7999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -7993,7 +8007,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
@@ -8007,7 +8021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -8021,7 +8035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -8035,7 +8049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>252</v>
       </c>
@@ -8043,7 +8057,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -8057,7 +8071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -8071,7 +8085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>256</v>
       </c>
@@ -8079,7 +8093,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -8093,7 +8107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
@@ -8101,7 +8115,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -8115,7 +8129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
@@ -8129,7 +8143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
@@ -8143,7 +8157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>253</v>
       </c>
@@ -8151,7 +8165,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
@@ -8165,7 +8179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>255</v>
       </c>
@@ -8173,7 +8187,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
@@ -8187,7 +8201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>62</v>
       </c>
@@ -8221,15 +8235,15 @@
       <selection pane="bottomLeft" activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8243,7 +8257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -8251,7 +8265,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
@@ -8265,7 +8279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -8273,7 +8287,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -8287,7 +8301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -8301,7 +8315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
@@ -8315,7 +8329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>90</v>
       </c>
@@ -8329,7 +8343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -8343,7 +8357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -8357,7 +8371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -8371,7 +8385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -8385,7 +8399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>88</v>
       </c>
@@ -8399,7 +8413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -8413,7 +8427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -8427,7 +8441,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
@@ -8441,7 +8455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>256</v>
       </c>
@@ -8449,7 +8463,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>184</v>
       </c>
@@ -8463,7 +8477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>174</v>
       </c>
@@ -8477,7 +8491,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>181</v>
       </c>
@@ -8491,7 +8505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>178</v>
       </c>
@@ -8505,7 +8519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>254</v>
       </c>
@@ -8513,7 +8527,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>75</v>
       </c>
@@ -8527,7 +8541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -8541,7 +8555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>127</v>
       </c>
@@ -8555,7 +8569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>117</v>
       </c>
@@ -8569,7 +8583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>130</v>
       </c>
@@ -8583,7 +8597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>96</v>
       </c>
@@ -8597,7 +8611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>108</v>
       </c>
@@ -8611,7 +8625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>133</v>
       </c>
@@ -8625,7 +8639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -8639,7 +8653,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>100</v>
       </c>
@@ -8653,7 +8667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>124</v>
       </c>
@@ -8667,7 +8681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>103</v>
       </c>
@@ -8681,7 +8695,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>138</v>
       </c>
@@ -8695,7 +8709,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>253</v>
       </c>
@@ -8703,7 +8717,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -8717,7 +8731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>255</v>
       </c>
@@ -8725,7 +8739,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>170</v>
       </c>
@@ -8739,7 +8753,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>145</v>
       </c>
@@ -8753,7 +8767,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>158</v>
       </c>
@@ -8767,7 +8781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>141</v>
       </c>
@@ -8781,7 +8795,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>160</v>
       </c>
@@ -8795,7 +8809,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>151</v>
       </c>
@@ -8809,7 +8823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
         <v>163</v>
       </c>
@@ -8823,7 +8837,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>147</v>
       </c>
@@ -8837,7 +8851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>152</v>
       </c>
@@ -8851,7 +8865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>156</v>
       </c>
@@ -8865,7 +8879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
         <v>167</v>
       </c>
@@ -8879,7 +8893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -8902,15 +8916,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8924,7 +8938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -8932,7 +8946,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>270</v>
       </c>
@@ -8946,7 +8960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>271</v>
       </c>
@@ -8960,7 +8974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>273</v>
       </c>
@@ -8974,7 +8988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>275</v>
       </c>
@@ -8988,7 +9002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>278</v>
       </c>
@@ -9002,7 +9016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>253</v>
       </c>
@@ -9010,7 +9024,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>280</v>
       </c>
@@ -9024,7 +9038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>254</v>
       </c>
@@ -9032,7 +9046,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>283</v>
       </c>
@@ -9046,7 +9060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>285</v>
       </c>
@@ -9060,7 +9074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>288</v>
       </c>
@@ -9074,7 +9088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>291</v>
       </c>
@@ -9088,7 +9102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>294</v>
       </c>
@@ -9102,7 +9116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>256</v>
       </c>
@@ -9110,7 +9124,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>300</v>
       </c>
@@ -9124,7 +9138,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>303</v>
       </c>
@@ -9138,7 +9152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
@@ -9146,7 +9160,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>297</v>
       </c>
@@ -9160,7 +9174,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>298</v>
       </c>
@@ -9174,7 +9188,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>307</v>
       </c>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D434EE4E-878E-F64E-AFA2-2C7C1D1EEB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22531FA-39FC-4582-BC45-D064DE308F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="715">
   <si>
     <t>Name</t>
   </si>
@@ -2153,9 +2153,6 @@
   </si>
   <si>
     <t>Emerging Talent Program Specialist</t>
-  </si>
-  <si>
-    <t>Vmware</t>
   </si>
   <si>
     <t>Slack</t>
@@ -2495,19 +2492,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -2529,7 +2526,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>178</v>
       </c>
@@ -2543,7 +2540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>256</v>
       </c>
@@ -2551,7 +2548,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -2559,13 +2556,13 @@
         <v>700</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>701</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>252</v>
       </c>
@@ -2573,12 +2570,12 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>143</v>
@@ -2587,7 +2584,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>254</v>
       </c>
@@ -2595,7 +2592,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>124</v>
       </c>
@@ -2603,13 +2600,13 @@
         <v>656</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>136</v>
       </c>
@@ -2623,7 +2620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>255</v>
       </c>
@@ -2631,7 +2628,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>158</v>
       </c>
@@ -2639,13 +2636,13 @@
         <v>194</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
@@ -2653,82 +2650,82 @@
         <v>194</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
   </sheetData>
@@ -2744,15 +2741,15 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -2774,7 +2771,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>75</v>
       </c>
@@ -2788,7 +2785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>90</v>
       </c>
@@ -2816,7 +2813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -2844,7 +2841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -2858,7 +2855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -2872,7 +2869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>73</v>
       </c>
@@ -2886,7 +2883,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2900,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>253</v>
       </c>
@@ -2908,7 +2905,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>79</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>254</v>
       </c>
@@ -2930,7 +2927,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>174</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>108</v>
       </c>
@@ -2958,7 +2955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>120</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -3000,7 +2997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -3014,7 +3011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>103</v>
       </c>
@@ -3028,7 +3025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
@@ -3042,7 +3039,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>256</v>
       </c>
@@ -3050,7 +3047,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>348</v>
       </c>
@@ -3064,7 +3061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>255</v>
       </c>
@@ -3072,7 +3069,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3086,7 +3083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>353</v>
       </c>
@@ -3100,7 +3097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -3114,7 +3111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>145</v>
       </c>
@@ -3128,7 +3125,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>337</v>
       </c>
@@ -3142,7 +3139,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>147</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>152</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>21</v>
       </c>
@@ -3197,15 +3194,15 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -3227,7 +3224,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>356</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>359</v>
       </c>
@@ -3255,7 +3252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>361</v>
       </c>
@@ -3269,7 +3266,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>365</v>
       </c>
@@ -3283,7 +3280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>366</v>
       </c>
@@ -3297,7 +3294,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>253</v>
       </c>
@@ -3305,7 +3302,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>368</v>
       </c>
@@ -3319,7 +3316,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>372</v>
       </c>
@@ -3333,7 +3330,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>375</v>
       </c>
@@ -3347,7 +3344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>254</v>
       </c>
@@ -3355,7 +3352,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>378</v>
       </c>
@@ -3369,7 +3366,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>381</v>
       </c>
@@ -3383,7 +3380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>256</v>
       </c>
@@ -3391,7 +3388,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>384</v>
       </c>
@@ -3405,7 +3402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>306</v>
       </c>
@@ -3413,7 +3410,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>387</v>
       </c>
@@ -3440,15 +3437,15 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -3470,7 +3467,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>270</v>
       </c>
@@ -3484,7 +3481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>356</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>271</v>
       </c>
@@ -3512,7 +3509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>273</v>
       </c>
@@ -3540,7 +3537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>337</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>275</v>
       </c>
@@ -3568,7 +3565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>399</v>
       </c>
@@ -3582,7 +3579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>401</v>
       </c>
@@ -3596,7 +3593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -3624,7 +3621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>278</v>
       </c>
@@ -3638,7 +3635,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>253</v>
       </c>
@@ -3646,7 +3643,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>174</v>
       </c>
@@ -3660,7 +3657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>353</v>
       </c>
@@ -3674,7 +3671,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>408</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>254</v>
       </c>
@@ -3696,7 +3693,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>411</v>
       </c>
@@ -3724,7 +3721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>285</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>103</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>414</v>
       </c>
@@ -3780,7 +3777,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>417</v>
       </c>
@@ -3794,7 +3791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>348</v>
       </c>
@@ -3808,7 +3805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>294</v>
       </c>
@@ -3822,7 +3819,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>307</v>
       </c>
@@ -3836,7 +3833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>423</v>
       </c>
@@ -3864,7 +3861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>255</v>
       </c>
@@ -3872,7 +3869,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>297</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>298</v>
       </c>
@@ -3900,7 +3897,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>256</v>
       </c>
@@ -3908,7 +3905,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>300</v>
       </c>
@@ -3922,7 +3919,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>303</v>
       </c>
@@ -3936,7 +3933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>306</v>
       </c>
@@ -3944,7 +3941,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>429</v>
       </c>
@@ -3971,15 +3968,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +3990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -4001,7 +3998,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>440</v>
       </c>
@@ -4015,7 +4012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -4023,7 +4020,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>432</v>
       </c>
@@ -4037,7 +4034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>365</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>433</v>
       </c>
@@ -4065,7 +4062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>366</v>
       </c>
@@ -4079,7 +4076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>437</v>
       </c>
@@ -4093,7 +4090,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>254</v>
       </c>
@@ -4101,7 +4098,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>378</v>
       </c>
@@ -4115,7 +4112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>443</v>
       </c>
@@ -4129,7 +4126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>446</v>
       </c>
@@ -4143,7 +4140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>449</v>
       </c>
@@ -4170,15 +4167,15 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -4200,7 +4197,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>356</v>
       </c>
@@ -4214,7 +4211,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>359</v>
       </c>
@@ -4228,7 +4225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>361</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>432</v>
       </c>
@@ -4256,7 +4253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>365</v>
       </c>
@@ -4270,7 +4267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>280</v>
       </c>
@@ -4284,7 +4281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>366</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>437</v>
       </c>
@@ -4312,7 +4309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>253</v>
       </c>
@@ -4320,7 +4317,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>278</v>
       </c>
@@ -4334,7 +4331,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>254</v>
       </c>
@@ -4342,7 +4339,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>378</v>
       </c>
@@ -4356,7 +4353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>353</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>285</v>
       </c>
@@ -4384,7 +4381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>401</v>
       </c>
@@ -4398,7 +4395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>429</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>291</v>
       </c>
@@ -4426,7 +4423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>375</v>
       </c>
@@ -4440,7 +4437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>294</v>
       </c>
@@ -4454,7 +4451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>307</v>
       </c>
@@ -4468,7 +4465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>255</v>
       </c>
@@ -4476,7 +4473,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>297</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>256</v>
       </c>
@@ -4498,7 +4495,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>384</v>
       </c>
@@ -4512,7 +4509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>273</v>
       </c>
@@ -4526,7 +4523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>306</v>
       </c>
@@ -4534,7 +4531,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>387</v>
       </c>
@@ -4561,15 +4558,15 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4583,7 +4580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -4591,7 +4588,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>490</v>
       </c>
@@ -4605,7 +4602,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -4613,7 +4610,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>479</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>480</v>
       </c>
@@ -4641,7 +4638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>254</v>
       </c>
@@ -4649,7 +4646,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>482</v>
       </c>
@@ -4663,7 +4660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>485</v>
       </c>
@@ -4677,7 +4674,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>253</v>
       </c>
@@ -4685,7 +4682,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>488</v>
       </c>
@@ -4712,15 +4709,15 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -4742,7 +4739,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>488</v>
       </c>
@@ -4756,7 +4753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>494</v>
       </c>
@@ -4770,7 +4767,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>497</v>
       </c>
@@ -4784,7 +4781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>500</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>365</v>
       </c>
@@ -4812,7 +4809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>387</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>504</v>
       </c>
@@ -4840,7 +4837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>507</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>440</v>
       </c>
@@ -4868,7 +4865,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>366</v>
       </c>
@@ -4882,7 +4879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>437</v>
       </c>
@@ -4896,7 +4893,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>254</v>
       </c>
@@ -4904,7 +4901,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>378</v>
       </c>
@@ -4918,7 +4915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>513</v>
       </c>
@@ -4932,7 +4929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>443</v>
       </c>
@@ -4946,7 +4943,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>446</v>
       </c>
@@ -4960,7 +4957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>518</v>
       </c>
@@ -4974,7 +4971,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>449</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>255</v>
       </c>
@@ -4996,7 +4993,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>522</v>
       </c>
@@ -5010,7 +5007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>524</v>
       </c>
@@ -5024,7 +5021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>527</v>
       </c>
@@ -5038,7 +5035,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>298</v>
       </c>
@@ -5052,7 +5049,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>306</v>
       </c>
@@ -5060,7 +5057,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>530</v>
       </c>
@@ -5074,7 +5071,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>533</v>
       </c>
@@ -5101,15 +5098,15 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -5131,7 +5128,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>544</v>
       </c>
@@ -5145,7 +5142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>546</v>
       </c>
@@ -5159,7 +5156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>252</v>
       </c>
@@ -5167,7 +5164,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>535</v>
       </c>
@@ -5181,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>538</v>
       </c>
@@ -5196,7 +5193,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>539</v>
       </c>
@@ -5210,7 +5207,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>540</v>
       </c>
@@ -5224,7 +5221,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>543</v>
       </c>
@@ -5238,7 +5235,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
@@ -5246,7 +5243,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>548</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>550</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>255</v>
       </c>
@@ -5282,7 +5279,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>522</v>
       </c>
@@ -5296,7 +5293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>555</v>
       </c>
@@ -5323,15 +5320,15 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -5353,7 +5350,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>576</v>
       </c>
@@ -5367,7 +5364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -5375,7 +5372,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>479</v>
       </c>
@@ -5389,7 +5386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>494</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>513</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>490</v>
       </c>
@@ -5431,7 +5428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>560</v>
       </c>
@@ -5445,7 +5442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>561</v>
       </c>
@@ -5459,7 +5456,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>564</v>
       </c>
@@ -5473,7 +5470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>480</v>
       </c>
@@ -5487,7 +5484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>566</v>
       </c>
@@ -5501,7 +5498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>569</v>
       </c>
@@ -5515,7 +5512,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>572</v>
       </c>
@@ -5529,7 +5526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>574</v>
       </c>
@@ -5543,7 +5540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>253</v>
       </c>
@@ -5551,7 +5548,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>579</v>
       </c>
@@ -5565,7 +5562,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>583</v>
       </c>
@@ -5579,7 +5576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>254</v>
       </c>
@@ -5587,7 +5584,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>482</v>
       </c>
@@ -5601,7 +5598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>485</v>
       </c>
@@ -5615,7 +5612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>588</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>591</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>593</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>518</v>
       </c>
@@ -5671,7 +5668,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>598</v>
       </c>
@@ -5685,7 +5682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>601</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>604</v>
       </c>
@@ -5713,7 +5710,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>256</v>
       </c>
@@ -5721,7 +5718,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>359</v>
       </c>
@@ -5735,7 +5732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>524</v>
       </c>
@@ -5749,7 +5746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>306</v>
       </c>
@@ -5757,7 +5754,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>610</v>
       </c>
@@ -5771,7 +5768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>613</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>527</v>
       </c>
@@ -5799,7 +5796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>533</v>
       </c>
@@ -5813,7 +5810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>618</v>
       </c>
@@ -5836,19 +5833,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="51.36328125" customWidth="1"/>
+    <col min="3" max="3" width="41.36328125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5862,7 +5859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -5870,21 +5867,21 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>689</v>
       </c>
@@ -5898,7 +5895,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -5906,21 +5903,21 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>205</v>
       </c>
@@ -5934,7 +5931,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>210</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>210</v>
       </c>
@@ -5962,7 +5959,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>253</v>
       </c>
@@ -5970,7 +5967,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>629</v>
       </c>
@@ -5984,7 +5981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>255</v>
       </c>
@@ -5992,7 +5989,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>644</v>
       </c>
@@ -6006,115 +6003,115 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>661</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>644</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>714</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6134,15 +6131,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6156,7 +6153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -6164,7 +6161,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -6178,7 +6175,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -6192,7 +6189,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>211</v>
       </c>
@@ -6206,7 +6203,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>252</v>
       </c>
@@ -6214,7 +6211,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -6228,7 +6225,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -6242,7 +6239,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>184</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -6284,7 +6281,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>254</v>
       </c>
@@ -6292,7 +6289,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
@@ -6306,7 +6303,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>208</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>209</v>
       </c>
@@ -6334,7 +6331,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>253</v>
       </c>
@@ -6342,7 +6339,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>204</v>
       </c>
@@ -6356,7 +6353,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>255</v>
       </c>
@@ -6364,7 +6361,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -6378,82 +6375,82 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
   </sheetData>
@@ -6469,15 +6466,15 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="51.36328125" customWidth="1"/>
+    <col min="3" max="3" width="41.36328125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6491,7 +6488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -6499,7 +6496,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>178</v>
       </c>
@@ -6513,7 +6510,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>629</v>
       </c>
@@ -6527,7 +6524,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -6535,7 +6532,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>634</v>
       </c>
@@ -6549,7 +6546,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>202</v>
       </c>
@@ -6563,7 +6560,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>640</v>
       </c>
@@ -6577,7 +6574,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -6591,7 +6588,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>205</v>
       </c>
@@ -6605,7 +6602,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -6619,7 +6616,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>207</v>
       </c>
@@ -6633,7 +6630,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>210</v>
       </c>
@@ -6647,7 +6644,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>213</v>
       </c>
@@ -6661,7 +6658,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>256</v>
       </c>
@@ -6669,7 +6666,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
@@ -6683,7 +6680,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>212</v>
       </c>
@@ -6697,7 +6694,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>254</v>
       </c>
@@ -6705,7 +6702,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>203</v>
       </c>
@@ -6719,7 +6716,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>674</v>
       </c>
@@ -6733,7 +6730,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>136</v>
       </c>
@@ -6747,7 +6744,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>661</v>
       </c>
@@ -6761,7 +6758,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>206</v>
       </c>
@@ -6775,7 +6772,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>669</v>
       </c>
@@ -6789,7 +6786,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>666</v>
       </c>
@@ -6803,7 +6800,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>124</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>664</v>
       </c>
@@ -6831,7 +6828,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>255</v>
       </c>
@@ -6839,7 +6836,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>644</v>
       </c>
@@ -6853,7 +6850,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>648</v>
       </c>
@@ -6867,7 +6864,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>198</v>
       </c>
@@ -6881,7 +6878,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -6895,7 +6892,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>160</v>
       </c>
@@ -6909,7 +6906,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>190</v>
       </c>
@@ -6923,7 +6920,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>163</v>
       </c>
@@ -6937,7 +6934,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>651</v>
       </c>
@@ -6951,91 +6948,91 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7061,14 +7058,14 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="40.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7083,7 +7080,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -7092,7 +7089,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -7106,7 +7103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
@@ -7121,7 +7118,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -7129,7 +7126,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -7144,7 +7141,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -7159,7 +7156,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -7173,7 +7170,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -7188,7 +7185,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -7202,7 +7199,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
@@ -7210,7 +7207,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>96</v>
       </c>
@@ -7224,7 +7221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
@@ -7238,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
@@ -7247,7 +7244,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -7262,7 +7259,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>141</v>
       </c>
@@ -7277,7 +7274,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
@@ -7291,7 +7288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>147</v>
       </c>
@@ -7327,7 +7324,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>152</v>
       </c>
@@ -7342,7 +7339,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>156</v>
       </c>
@@ -7374,15 +7371,15 @@
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7396,7 +7393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -7404,7 +7401,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7418,7 +7415,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>252</v>
       </c>
@@ -7426,7 +7423,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -7454,7 +7451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>184</v>
       </c>
@@ -7468,7 +7465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -7482,7 +7479,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -7496,7 +7493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>205</v>
       </c>
@@ -7512,7 +7509,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -7528,7 +7525,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>213</v>
       </c>
@@ -7544,7 +7541,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -7560,7 +7557,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>256</v>
       </c>
@@ -7570,7 +7567,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>204</v>
       </c>
@@ -7586,7 +7583,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>136</v>
       </c>
@@ -7602,7 +7599,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>133</v>
       </c>
@@ -7618,7 +7615,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>212</v>
       </c>
@@ -7634,7 +7631,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>254</v>
       </c>
@@ -7644,7 +7641,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>203</v>
       </c>
@@ -7660,7 +7657,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>115</v>
       </c>
@@ -7676,7 +7673,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -7692,7 +7689,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -7708,7 +7705,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>206</v>
       </c>
@@ -7724,7 +7721,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
@@ -7740,7 +7737,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>208</v>
       </c>
@@ -7756,7 +7753,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>209</v>
       </c>
@@ -7772,7 +7769,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>178</v>
       </c>
@@ -7786,7 +7783,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>210</v>
       </c>
@@ -7800,7 +7797,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>253</v>
       </c>
@@ -7808,7 +7805,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>202</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>207</v>
       </c>
@@ -7836,7 +7833,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>211</v>
       </c>
@@ -7850,7 +7847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>255</v>
       </c>
@@ -7858,7 +7855,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>170</v>
       </c>
@@ -7872,7 +7869,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>198</v>
       </c>
@@ -7886,7 +7883,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>158</v>
       </c>
@@ -7900,7 +7897,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>160</v>
       </c>
@@ -7914,7 +7911,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>190</v>
       </c>
@@ -7928,7 +7925,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>163</v>
       </c>
@@ -7942,7 +7939,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
@@ -7978,14 +7975,14 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7999,7 +7996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -8007,7 +8004,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
@@ -8021,7 +8018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -8049,7 +8046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>252</v>
       </c>
@@ -8057,7 +8054,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -8071,7 +8068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -8085,7 +8082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>256</v>
       </c>
@@ -8093,7 +8090,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -8107,7 +8104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
@@ -8115,7 +8112,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -8129,7 +8126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
@@ -8143,7 +8140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
@@ -8157,7 +8154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>253</v>
       </c>
@@ -8165,7 +8162,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
@@ -8179,7 +8176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>255</v>
       </c>
@@ -8187,7 +8184,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
@@ -8201,7 +8198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>62</v>
       </c>
@@ -8235,15 +8232,15 @@
       <selection pane="bottomLeft" activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8257,7 +8254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -8265,7 +8262,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
@@ -8279,7 +8276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
@@ -8287,7 +8284,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -8301,7 +8298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -8315,7 +8312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
@@ -8329,7 +8326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>90</v>
       </c>
@@ -8343,7 +8340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -8357,7 +8354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -8371,7 +8368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -8385,7 +8382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -8399,7 +8396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>88</v>
       </c>
@@ -8413,7 +8410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -8427,7 +8424,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -8441,7 +8438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
@@ -8455,7 +8452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>256</v>
       </c>
@@ -8463,7 +8460,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>184</v>
       </c>
@@ -8477,7 +8474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>174</v>
       </c>
@@ -8491,7 +8488,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>181</v>
       </c>
@@ -8505,7 +8502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>178</v>
       </c>
@@ -8519,7 +8516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>254</v>
       </c>
@@ -8527,7 +8524,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>75</v>
       </c>
@@ -8541,7 +8538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -8555,7 +8552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>127</v>
       </c>
@@ -8569,7 +8566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>117</v>
       </c>
@@ -8583,7 +8580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>130</v>
       </c>
@@ -8597,7 +8594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>96</v>
       </c>
@@ -8611,7 +8608,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>108</v>
       </c>
@@ -8625,7 +8622,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>133</v>
       </c>
@@ -8639,7 +8636,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -8653,7 +8650,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>100</v>
       </c>
@@ -8667,7 +8664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>124</v>
       </c>
@@ -8681,7 +8678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>103</v>
       </c>
@@ -8695,7 +8692,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>138</v>
       </c>
@@ -8709,7 +8706,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>253</v>
       </c>
@@ -8717,7 +8714,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -8731,7 +8728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>255</v>
       </c>
@@ -8739,7 +8736,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>170</v>
       </c>
@@ -8753,7 +8750,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>145</v>
       </c>
@@ -8767,7 +8764,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>158</v>
       </c>
@@ -8781,7 +8778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>141</v>
       </c>
@@ -8795,7 +8792,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>160</v>
       </c>
@@ -8809,7 +8806,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>151</v>
       </c>
@@ -8823,7 +8820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>163</v>
       </c>
@@ -8837,7 +8834,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>147</v>
       </c>
@@ -8851,7 +8848,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>152</v>
       </c>
@@ -8865,7 +8862,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>156</v>
       </c>
@@ -8879,7 +8876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>167</v>
       </c>
@@ -8893,7 +8890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -8916,15 +8913,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8938,7 +8935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
@@ -8946,7 +8943,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>270</v>
       </c>
@@ -8960,7 +8957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>271</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>273</v>
       </c>
@@ -8988,7 +8985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>275</v>
       </c>
@@ -9002,7 +8999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>278</v>
       </c>
@@ -9016,7 +9013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>253</v>
       </c>
@@ -9024,7 +9021,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>280</v>
       </c>
@@ -9038,7 +9035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>254</v>
       </c>
@@ -9046,7 +9043,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>283</v>
       </c>
@@ -9060,7 +9057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>285</v>
       </c>
@@ -9074,7 +9071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>288</v>
       </c>
@@ -9088,7 +9085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>291</v>
       </c>
@@ -9102,7 +9099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>294</v>
       </c>
@@ -9116,7 +9113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>256</v>
       </c>
@@ -9124,7 +9121,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>300</v>
       </c>
@@ -9138,7 +9135,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>303</v>
       </c>
@@ -9152,7 +9149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
@@ -9160,7 +9157,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>297</v>
       </c>
@@ -9174,7 +9171,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>298</v>
       </c>
@@ -9188,7 +9185,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>307</v>
       </c>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22531FA-39FC-4582-BC45-D064DE308F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77EF97E-ECA7-46F2-84E0-71E4B7FC920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="719">
   <si>
     <t>Name</t>
   </si>
@@ -2140,12 +2140,6 @@
     <t>New York, US</t>
   </si>
   <si>
-    <t>Summer Associate</t>
-  </si>
-  <si>
-    <t>AlphaSights</t>
-  </si>
-  <si>
     <t>External Audit Intern</t>
   </si>
   <si>
@@ -2195,6 +2189,24 @@
   </si>
   <si>
     <t>Venture Capital</t>
+  </si>
+  <si>
+    <t>Marketing and Sales</t>
+  </si>
+  <si>
+    <t>David Ayala</t>
+  </si>
+  <si>
+    <t>Niagara Bottling</t>
+  </si>
+  <si>
+    <t>Diamond Bar, CA</t>
+  </si>
+  <si>
+    <t>Rotational Finance Analyst</t>
+  </si>
+  <si>
+    <t>Meta</t>
   </si>
 </sst>
 </file>
@@ -2490,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2565,7 @@
         <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>231</v>
@@ -2572,95 +2584,103 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>702</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -2675,13 +2695,13 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2693,13 +2713,13 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2724,9 +2744,15 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5831,10 +5857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5872,13 +5898,13 @@
         <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5908,13 +5934,13 @@
         <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,10 +5962,10 @@
         <v>210</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>622</v>
@@ -5959,91 +5985,99 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -6081,14 +6115,14 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6105,17 +6139,23 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\newest_dspuci_website\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77EF97E-ECA7-46F2-84E0-71E4B7FC920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB87B93-FDF2-4CD9-B7BC-63C1AA42991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7788" yWindow="60" windowWidth="12960" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="774">
   <si>
     <t>Name</t>
   </si>
@@ -2131,21 +2131,9 @@
     <t>Strategic Sales Coordinator</t>
   </si>
   <si>
-    <t>Global Liquidity Summer Analyst</t>
-  </si>
-  <si>
-    <t>JP Morgan</t>
-  </si>
-  <si>
     <t>New York, US</t>
   </si>
   <si>
-    <t>External Audit Intern</t>
-  </si>
-  <si>
-    <t>PwC</t>
-  </si>
-  <si>
     <t>Emerging Talent Program Specialist</t>
   </si>
   <si>
@@ -2170,18 +2158,6 @@
     <t>Chicago, IL</t>
   </si>
   <si>
-    <t>Strategic Finance Intern</t>
-  </si>
-  <si>
-    <t>Ultra Mint Mobile</t>
-  </si>
-  <si>
-    <t>Costa Mesa, US</t>
-  </si>
-  <si>
-    <t>Application Program Analyst Intern</t>
-  </si>
-  <si>
     <t>Partner</t>
   </si>
   <si>
@@ -2191,9 +2167,6 @@
     <t>Venture Capital</t>
   </si>
   <si>
-    <t>Marketing and Sales</t>
-  </si>
-  <si>
     <t>David Ayala</t>
   </si>
   <si>
@@ -2207,6 +2180,198 @@
   </si>
   <si>
     <t>Meta</t>
+  </si>
+  <si>
+    <t>LinQuest</t>
+  </si>
+  <si>
+    <t>J.ING</t>
+  </si>
+  <si>
+    <t>Jorina Chen</t>
+  </si>
+  <si>
+    <t>UX Research Intern</t>
+  </si>
+  <si>
+    <t>Zendesk</t>
+  </si>
+  <si>
+    <t>Duck Creek Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universal Pictures CampusU Marketing Representative </t>
+  </si>
+  <si>
+    <t>Universal Pictures</t>
+  </si>
+  <si>
+    <t>Marketing and Analytics Intern</t>
+  </si>
+  <si>
+    <t>Retail Marketing and Strategy Intern</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>Maxwell Xu</t>
+  </si>
+  <si>
+    <t>Twilio</t>
+  </si>
+  <si>
+    <t>Consulting Summer Scholar</t>
+  </si>
+  <si>
+    <t>Change Management Operations Intern</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Social Media Manager</t>
+  </si>
+  <si>
+    <t>OPTIS Group</t>
+  </si>
+  <si>
+    <t>Domestic Media Marketing Intern</t>
+  </si>
+  <si>
+    <t>Paramount Pictures</t>
+  </si>
+  <si>
+    <t>Dylan Tanzil</t>
+  </si>
+  <si>
+    <t>L.S Congleton &amp; Associates</t>
+  </si>
+  <si>
+    <t>Laguna Woods, CA</t>
+  </si>
+  <si>
+    <t>Technical Product Management Intern</t>
+  </si>
+  <si>
+    <t>Riot Games</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Jenny Wu</t>
+  </si>
+  <si>
+    <t>Kaiser Permanente</t>
+  </si>
+  <si>
+    <t>Summer Investment Analyst</t>
+  </si>
+  <si>
+    <t>Northwood Investments</t>
+  </si>
+  <si>
+    <t>Evelyn Wu</t>
+  </si>
+  <si>
+    <t>Web Development Intern</t>
+  </si>
+  <si>
+    <t>Code Tenderloin</t>
+  </si>
+  <si>
+    <t>Haley Truong</t>
+  </si>
+  <si>
+    <t>Skyworks Solutions</t>
+  </si>
+  <si>
+    <t>Aryan Bajaria</t>
+  </si>
+  <si>
+    <t>HP Tech Ventures Analyst</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Adora Chen</t>
+  </si>
+  <si>
+    <t>Social Media Intern</t>
+  </si>
+  <si>
+    <t>E-liza Dolls</t>
+  </si>
+  <si>
+    <t>Jake Moss</t>
+  </si>
+  <si>
+    <t>Product Development Intern</t>
+  </si>
+  <si>
+    <t>Billabong</t>
+  </si>
+  <si>
+    <t>Forest Huang</t>
+  </si>
+  <si>
+    <t>CBRE</t>
+  </si>
+  <si>
+    <t>Winnie Qi</t>
+  </si>
+  <si>
+    <t>Client Group Summer Intern</t>
+  </si>
+  <si>
+    <t>Wellington Management</t>
+  </si>
+  <si>
+    <t>Finance Extern</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Elin Min</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Lululemon</t>
+  </si>
+  <si>
+    <t>Julia Lin</t>
+  </si>
+  <si>
+    <t>Finance/Business Operates Intern</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>Student Marketeer</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Jason Henkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head of Affiliate Marketing </t>
+  </si>
+  <si>
+    <t>Content Cognition Inc.</t>
+  </si>
+  <si>
+    <t>Nathan Lee</t>
+  </si>
+  <si>
+    <t>Vice President Marketing</t>
   </si>
 </sst>
 </file>
@@ -2508,12 +2673,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="40.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,7 +2695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -2552,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>256</v>
       </c>
@@ -2565,7 +2730,7 @@
         <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>231</v>
@@ -2574,7 +2739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>252</v>
       </c>
@@ -2587,10 +2752,10 @@
         <v>634</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>622</v>
@@ -2601,7 +2766,7 @@
         <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>143</v>
@@ -2610,7 +2775,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>254</v>
       </c>
@@ -2626,10 +2791,10 @@
         <v>656</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,7 +2811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>255</v>
       </c>
@@ -2662,7 +2827,7 @@
         <v>194</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>622</v>
@@ -2676,7 +2841,7 @@
         <v>194</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>622</v>
@@ -2767,15 +2932,15 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3220,15 +3385,15 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3463,15 +3628,15 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3994,15 +4159,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4193,15 +4358,15 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4584,15 +4749,15 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4735,15 +4900,15 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5124,15 +5289,15 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5346,15 +5511,15 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5857,17 +6022,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="51.36328125" customWidth="1"/>
-    <col min="3" max="3" width="41.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5885,7 +6050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -5898,13 +6063,13 @@
         <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5912,7 +6077,7 @@
         <v>689</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>687</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>92</v>
@@ -5921,241 +6086,561 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>708</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>714</v>
+      <c r="A12" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>738</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+        <v>739</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>744</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>334</v>
+        <v>220</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>191</v>
+        <v>706</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>622</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>661</v>
+      <c r="A15" s="6" t="s">
+        <v>634</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>704</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>644</v>
+      <c r="A17" s="6" t="s">
+        <v>736</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>710</v>
+        <v>267</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>622</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>727</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>750</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>768</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>720</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>763</v>
+      </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>729</v>
+      </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>725</v>
+      </c>
       <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6171,12 +6656,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="40.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6193,7 +6678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -6243,7 +6728,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>252</v>
       </c>
@@ -6321,7 +6806,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>254</v>
       </c>
@@ -6371,7 +6856,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>253</v>
       </c>
@@ -6393,7 +6878,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>255</v>
       </c>
@@ -6415,7 +6900,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6506,11 +6991,11 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="51.36328125" customWidth="1"/>
-    <col min="3" max="3" width="41.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6528,7 +7013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -6564,7 +7049,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -6698,7 +7183,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>256</v>
       </c>
@@ -6734,7 +7219,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>254</v>
       </c>
@@ -6868,7 +7353,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>255</v>
       </c>
@@ -6988,7 +7473,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7042,7 +7527,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7066,7 +7551,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7098,11 +7583,11 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.36328125" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7120,7 +7605,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -7158,7 +7643,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>252</v>
       </c>
@@ -7239,7 +7724,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
@@ -7275,7 +7760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
@@ -7411,12 +7896,12 @@
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7433,7 +7918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -7455,7 +7940,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>252</v>
       </c>
@@ -7597,7 +8082,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>256</v>
       </c>
@@ -7671,7 +8156,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>254</v>
       </c>
@@ -7837,7 +8322,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>253</v>
       </c>
@@ -7887,7 +8372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>255</v>
       </c>
@@ -8015,11 +8500,11 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8272,11 +8757,11 @@
       <selection pane="bottomLeft" activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8888,7 +9373,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>152</v>
       </c>
@@ -8902,7 +9387,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>156</v>
       </c>
@@ -8916,7 +9401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>167</v>
       </c>
@@ -8930,7 +9415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -8953,15 +9438,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\newest_dspuci_website\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB87B93-FDF2-4CD9-B7BC-63C1AA42991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CEF6A-3FD7-4236-9250-5D688FA3771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7788" yWindow="60" windowWidth="12960" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6025,7 +6025,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6232,167 +6232,167 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>707</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>706</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>748</v>
+        <v>666</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>323</v>
+        <v>749</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>769</v>
+        <v>664</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>770</v>
+        <v>323</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>771</v>
+        <v>711</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>669</v>
+        <v>769</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>716</v>
+        <v>770</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>772</v>
+        <v>669</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>773</v>
+        <v>716</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>771</v>
+        <v>717</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>206</v>
+        <v>764</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>761</v>
+        <v>206</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>762</v>
+        <v>719</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>763</v>
+        <v>720</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>203</v>
+        <v>761</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D30" s="3"/>
     </row>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\newest_dspuci_website\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CEF6A-3FD7-4236-9250-5D688FA3771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A407AB-DAD2-4CEB-81E0-C7F019D68821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7788" yWindow="60" windowWidth="12960" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="773">
   <si>
     <t>Name</t>
   </si>
@@ -2255,9 +2255,6 @@
   </si>
   <si>
     <t>Riot Games</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
   </si>
   <si>
     <t>Jenny Wu</t>
@@ -6025,7 +6022,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6088,13 +6085,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>758</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -6122,25 +6119,25 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>759</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>760</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -6177,22 +6174,22 @@
         <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -6224,7 +6221,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>735</v>
+        <v>256</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6244,13 +6241,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -6290,13 +6287,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>750</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -6314,13 +6311,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>771</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -6338,25 +6335,25 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>773</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -6374,13 +6371,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>763</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -6418,13 +6415,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -6456,25 +6453,25 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>645</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -6518,13 +6515,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="D41" s="3"/>
     </row>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\newest_dspuci_website\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A407AB-DAD2-4CEB-81E0-C7F019D68821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61006B4F-3F0E-4247-9599-308D442A67D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7788" yWindow="60" windowWidth="12960" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7788" yWindow="60" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="778">
   <si>
     <t>Name</t>
   </si>
@@ -2369,6 +2369,21 @@
   </si>
   <si>
     <t>Vice President Marketing</t>
+  </si>
+  <si>
+    <t>Consulting Analyst</t>
+  </si>
+  <si>
+    <t>El Monte, CA</t>
+  </si>
+  <si>
+    <t>National Basketball Association (NBA)</t>
+  </si>
+  <si>
+    <t>Junior Product Designer</t>
+  </si>
+  <si>
+    <t>EBizCharge (Century Business Solutions)</t>
   </si>
 </sst>
 </file>
@@ -2664,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2702,174 +2717,194 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>696</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>775</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>777</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2881,13 +2916,13 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2912,9 +2947,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6021,7 +6062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\newest_dspuci_website\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61006B4F-3F0E-4247-9599-308D442A67D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9563E6AF-B55E-451F-9868-FD5215F4CB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7788" yWindow="60" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="778">
   <si>
     <t>Name</t>
   </si>
@@ -2679,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2811,63 +2811,63 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>674</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>695</v>
+        <v>188</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>696</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>622</v>
@@ -2875,42 +2875,50 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>699</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2922,13 +2930,13 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2953,12 +2961,19 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\newest_dspuci_website\dspuci-website-gatsby\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9563E6AF-B55E-451F-9868-FD5215F4CB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A30FC4-1021-4968-94C2-A2742F6E1C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="778">
   <si>
     <t>Name</t>
   </si>
@@ -2143,12 +2143,6 @@
     <t>Denver, CO</t>
   </si>
   <si>
-    <t>Coinbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance Rotation Program Analyst </t>
-  </si>
-  <si>
     <t>Veeva</t>
   </si>
   <si>
@@ -2176,9 +2170,6 @@
     <t>Diamond Bar, CA</t>
   </si>
   <si>
-    <t>Rotational Finance Analyst</t>
-  </si>
-  <si>
     <t>Meta</t>
   </si>
   <si>
@@ -2377,13 +2368,23 @@
     <t>El Monte, CA</t>
   </si>
   <si>
-    <t>National Basketball Association (NBA)</t>
-  </si>
-  <si>
     <t>Junior Product Designer</t>
   </si>
   <si>
     <t>EBizCharge (Century Business Solutions)</t>
+  </si>
+  <si>
+    <t>C3 AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Associate Software Engineer</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>ApplicantAI</t>
   </si>
 </sst>
 </file>
@@ -2454,16 +2455,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,18 +2684,18 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2707,29 +2709,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>178</v>
       </c>
@@ -2743,56 +2745,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>698</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>143</v>
@@ -2801,15 +2803,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>674</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>124</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>136</v>
       </c>
@@ -2851,15 +2853,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>158</v>
       </c>
@@ -2867,108 +2869,112 @@
         <v>194</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>697</v>
+        <v>774</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>194</v>
+      <c r="B16" s="7" t="s">
+        <v>775</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>168</v>
+        <v>776</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
   </sheetData>
@@ -2985,443 +2991,443 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3438,223 +3444,223 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>387</v>
       </c>
@@ -3681,65 +3687,65 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>271</v>
       </c>
@@ -3753,141 +3759,141 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>174</v>
       </c>
@@ -3901,8 +3907,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3915,277 +3921,277 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="D30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="D33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>429</v>
       </c>
@@ -4212,189 +4218,189 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4411,371 +4417,371 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>387</v>
       </c>
@@ -4802,141 +4808,141 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4953,227 +4959,227 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>443</v>
       </c>
@@ -5187,121 +5193,121 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>530</v>
       </c>
@@ -5315,7 +5321,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>533</v>
       </c>
@@ -5342,212 +5348,212 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5564,29 +5570,29 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -5594,375 +5600,375 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>359</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>524</v>
       </c>
@@ -5990,15 +5996,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>610</v>
       </c>
@@ -6012,7 +6018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>613</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>527</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>533</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>618</v>
       </c>
@@ -6081,15 +6087,15 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6103,29 +6109,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>689</v>
       </c>
@@ -6139,27 +6145,27 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>640</v>
       </c>
@@ -6173,45 +6179,45 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>758</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>472</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>205</v>
       </c>
@@ -6225,314 +6231,314 @@
         <v>693</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>629</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>735</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>666</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>747</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>744</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>664</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>760</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>721</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>718</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>744</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>741</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>712</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>651</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>753</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>750</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>645</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>750</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>747</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>644</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -6545,151 +6551,151 @@
         <v>622</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>739</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>661</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>704</v>
+      <c r="D42" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>644</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6709,15 +6715,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6731,15 +6737,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -6753,7 +6759,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>211</v>
       </c>
@@ -6781,15 +6787,15 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -6803,7 +6809,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -6817,7 +6823,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>184</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -6845,7 +6851,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -6859,15 +6865,15 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>208</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>209</v>
       </c>
@@ -6909,15 +6915,15 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>204</v>
       </c>
@@ -6931,15 +6937,15 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -6953,82 +6959,82 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
     </row>
   </sheetData>
@@ -7044,15 +7050,15 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7066,15 +7072,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>178</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>629</v>
       </c>
@@ -7102,15 +7108,15 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>634</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>202</v>
       </c>
@@ -7138,8 +7144,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>640</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7152,7 +7158,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>205</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -7194,8 +7200,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -7208,8 +7214,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -7222,7 +7228,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>213</v>
       </c>
@@ -7236,15 +7242,15 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
@@ -7258,7 +7264,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>212</v>
       </c>
@@ -7272,15 +7278,15 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>203</v>
       </c>
@@ -7294,7 +7300,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>674</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>136</v>
       </c>
@@ -7322,7 +7328,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>661</v>
       </c>
@@ -7336,7 +7342,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>206</v>
       </c>
@@ -7350,7 +7356,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>669</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>666</v>
       </c>
@@ -7378,7 +7384,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>124</v>
       </c>
@@ -7392,7 +7398,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>664</v>
       </c>
@@ -7406,29 +7412,29 @@
         <v>622</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>648</v>
       </c>
@@ -7438,25 +7444,25 @@
       <c r="C30" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -7466,53 +7472,53 @@
       <c r="C32" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>651</v>
       </c>
@@ -7522,95 +7528,95 @@
       <c r="C36" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7636,14 +7642,14 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7658,8 +7664,8 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
@@ -7667,7 +7673,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -7681,7 +7687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
@@ -7696,15 +7702,15 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -7719,7 +7725,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -7734,7 +7740,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -7748,7 +7754,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -7763,7 +7769,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -7777,15 +7783,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>254</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>96</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
@@ -7813,8 +7819,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B14" s="3"/>
@@ -7822,7 +7828,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -7837,7 +7843,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>141</v>
       </c>
@@ -7852,7 +7858,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
@@ -7866,7 +7872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>147</v>
       </c>
@@ -7902,7 +7908,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>152</v>
       </c>
@@ -7917,7 +7923,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>156</v>
       </c>
@@ -7949,15 +7955,15 @@
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7971,15 +7977,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7993,15 +7999,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>184</v>
       </c>
@@ -8043,7 +8049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -8071,7 +8077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>205</v>
       </c>
@@ -8084,10 +8090,10 @@
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -8100,10 +8106,10 @@
       <c r="D11" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>213</v>
       </c>
@@ -8116,10 +8122,10 @@
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -8132,20 +8138,20 @@
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>204</v>
       </c>
@@ -8158,10 +8164,10 @@
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>136</v>
       </c>
@@ -8174,10 +8180,10 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>133</v>
       </c>
@@ -8190,10 +8196,10 @@
       <c r="D17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>212</v>
       </c>
@@ -8206,20 +8212,20 @@
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>203</v>
       </c>
@@ -8232,10 +8238,10 @@
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>115</v>
       </c>
@@ -8248,10 +8254,10 @@
       <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -8264,10 +8270,10 @@
       <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -8280,10 +8286,10 @@
       <c r="D23" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>206</v>
       </c>
@@ -8296,10 +8302,10 @@
       <c r="D24" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
@@ -8312,10 +8318,10 @@
       <c r="D25" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>208</v>
       </c>
@@ -8328,10 +8334,10 @@
       <c r="D26" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>209</v>
       </c>
@@ -8344,10 +8350,10 @@
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>178</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>210</v>
       </c>
@@ -8375,15 +8381,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>202</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>207</v>
       </c>
@@ -8411,7 +8417,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>211</v>
       </c>
@@ -8425,15 +8431,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>170</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>198</v>
       </c>
@@ -8461,7 +8467,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>158</v>
       </c>
@@ -8475,7 +8481,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>160</v>
       </c>
@@ -8489,7 +8495,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>190</v>
       </c>
@@ -8503,7 +8509,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>163</v>
       </c>
@@ -8517,7 +8523,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
@@ -8553,14 +8559,14 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="44.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8574,219 +8580,219 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8810,15 +8816,15 @@
       <selection pane="bottomLeft" activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="49.77734375" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8832,643 +8838,643 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -9491,279 +9497,279 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>307</v>
       </c>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A30FC4-1021-4968-94C2-A2742F6E1C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90320EB7-2074-4702-AD29-E02C6D42FF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="777">
   <si>
     <t>Name</t>
   </si>
@@ -2375,10 +2375,6 @@
   </si>
   <si>
     <t>C3 AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Associate Software Engineer</t>
   </si>
   <si>
     <t>Founder</t>
@@ -2455,7 +2451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2463,9 +2459,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2684,7 +2677,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2875,12 +2868,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>775</v>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>697</v>
@@ -2894,10 +2887,10 @@
         <v>163</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>777</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,39 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90320EB7-2074-4702-AD29-E02C6D42FF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F139A0A-301B-47F7-AB22-97B20CBFC6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId1"/>
-    <sheet name="Internships 2022" sheetId="19" r:id="rId2"/>
-    <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId3"/>
-    <sheet name="Internships 2021" sheetId="16" r:id="rId4"/>
-    <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId5"/>
-    <sheet name="Internships 2020" sheetId="4" r:id="rId6"/>
-    <sheet name="Full Time Offers 2019" sheetId="2" r:id="rId7"/>
-    <sheet name="Internships 2019" sheetId="1" r:id="rId8"/>
-    <sheet name="Full Time Offers 2018" sheetId="5" r:id="rId9"/>
-    <sheet name="Internships 2018" sheetId="6" r:id="rId10"/>
-    <sheet name="Full Time Offers 2017" sheetId="7" r:id="rId11"/>
-    <sheet name="Internships 2017" sheetId="8" r:id="rId12"/>
-    <sheet name="Full Time Offers 2016" sheetId="9" r:id="rId13"/>
-    <sheet name="Internships 2016" sheetId="10" r:id="rId14"/>
-    <sheet name="Full Time Offers 2015" sheetId="11" r:id="rId15"/>
-    <sheet name="Internships 2015" sheetId="12" r:id="rId16"/>
-    <sheet name="Full Time Offers 2014" sheetId="13" r:id="rId17"/>
-    <sheet name="Internships 2014" sheetId="14" r:id="rId18"/>
+    <sheet name="Full Time Offers 2023" sheetId="23" r:id="rId1"/>
+    <sheet name="Internships 2023" sheetId="22" r:id="rId2"/>
+    <sheet name="Full Time Offers 2022" sheetId="18" r:id="rId3"/>
+    <sheet name="Internships 2022" sheetId="19" r:id="rId4"/>
+    <sheet name="Full Time Offers 2021" sheetId="15" r:id="rId5"/>
+    <sheet name="Internships 2021" sheetId="16" r:id="rId6"/>
+    <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId7"/>
+    <sheet name="Internships 2020" sheetId="4" r:id="rId8"/>
+    <sheet name="Full Time Offers 2019" sheetId="2" r:id="rId9"/>
+    <sheet name="Internships 2019" sheetId="1" r:id="rId10"/>
+    <sheet name="Full Time Offers 2018" sheetId="5" r:id="rId11"/>
+    <sheet name="Internships 2018" sheetId="6" r:id="rId12"/>
+    <sheet name="Full Time Offers 2017" sheetId="7" r:id="rId13"/>
+    <sheet name="Internships 2017" sheetId="8" r:id="rId14"/>
+    <sheet name="Full Time Offers 2016" sheetId="9" r:id="rId15"/>
+    <sheet name="Internships 2016" sheetId="10" r:id="rId16"/>
+    <sheet name="Full Time Offers 2015" sheetId="11" r:id="rId17"/>
+    <sheet name="Internships 2015" sheetId="12" r:id="rId18"/>
+    <sheet name="Full Time Offers 2014" sheetId="13" r:id="rId19"/>
+    <sheet name="Internships 2014" sheetId="14" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Internships 2020'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Internships 2020'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="803">
   <si>
     <t>Name</t>
   </si>
@@ -2134,9 +2136,6 @@
     <t>New York, US</t>
   </si>
   <si>
-    <t>Emerging Talent Program Specialist</t>
-  </si>
-  <si>
     <t>Slack</t>
   </si>
   <si>
@@ -2381,13 +2380,94 @@
   </si>
   <si>
     <t>ApplicantAI</t>
+  </si>
+  <si>
+    <t>Emerson Collective</t>
+  </si>
+  <si>
+    <t>HR Coordinator</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TTS Analyst</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t>Marketing Program Management Intern</t>
+  </si>
+  <si>
+    <t>Duolingo</t>
+  </si>
+  <si>
+    <t>Andrew Doan</t>
+  </si>
+  <si>
+    <t>FLDP Intern</t>
+  </si>
+  <si>
+    <t>Ronica Cheng</t>
+  </si>
+  <si>
+    <t>Asset and Wealth Management SA</t>
+  </si>
+  <si>
+    <t>PMM Intern</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>HGS Consulting Group</t>
+  </si>
+  <si>
+    <t>Ramped</t>
+  </si>
+  <si>
+    <t>Armanino</t>
+  </si>
+  <si>
+    <t>HCVT</t>
+  </si>
+  <si>
+    <t>UX Researcher Intern</t>
+  </si>
+  <si>
+    <t>Atlassian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Product Design</t>
+  </si>
+  <si>
+    <t>Anduril</t>
+  </si>
+  <si>
+    <t>L.S. Congleton &amp; Associates</t>
+  </si>
+  <si>
+    <t>Instagram Reels and Engagement Micro-Intern</t>
+  </si>
+  <si>
+    <t>UCI ANTrepreneur Center</t>
+  </si>
+  <si>
+    <t>BTS Analyst</t>
+  </si>
+  <si>
+    <t>Business Technology Solutions Analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2430,6 +2510,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2451,7 +2538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2459,6 +2546,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2673,11 +2761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9278A1-054B-49B3-865B-6502A97D8222}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2712,203 +2800,167 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>634</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>770</v>
+        <v>624</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>625</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>771</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>690</v>
+        <v>788</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>691</v>
+        <v>789</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>624</v>
+        <v>661</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>802</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>625</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>689</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>656</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>695</v>
+        <v>790</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>696</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>255</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>427</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>622</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
@@ -2917,13 +2969,13 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2935,7 +2987,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2954,29 +3006,1001 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D50">
+    <sortCondition ref="A3:A50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D48177-9EF2-1D45-80EE-751A8F12EE03}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B2E965-35C6-B34F-B96B-27E9F0AE48DD}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -3429,7 +4453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E244AA19-9506-B144-9EF7-AC6B1CF0AA3F}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3672,7 +4696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB25F1-A3D3-C841-A6F8-B5EF90040606}">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -4203,7 +5227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031EB02-A95C-D74D-83A4-05A3491E58FE}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -4402,7 +5426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828FE577-CA0A-4842-B5D5-4380510CAFAE}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -4793,7 +5817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E70235-1E9E-6D40-88A1-194511DD28AA}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -4944,7 +5968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B4F89E-D6CA-6E4F-AF78-0C66C961479F}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -5333,7 +6357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F961FB61-98A8-094A-A8C7-0E7FF49BA3F7}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -5555,7 +6579,462 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A3BAF-FDF2-446E-AB48-20EA8F423893}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A3EEF-A80E-B44C-84DA-A35A16B83714}">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -6072,12 +7551,302 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9946A236-302D-42F8-823D-681C430C113E}">
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6115,13 +7884,13 @@
         <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6140,13 +7909,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>754</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -6174,40 +7943,40 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>762</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>472</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6229,22 +7998,22 @@
         <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>735</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -6256,10 +8025,10 @@
         <v>220</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6270,7 +8039,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -6287,22 +8056,22 @@
         <v>212</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -6316,16 +8085,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6333,22 +8102,22 @@
         <v>666</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>724</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -6360,19 +8129,19 @@
         <v>323</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>767</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -6381,34 +8150,34 @@
         <v>669</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>714</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>769</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>764</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -6417,22 +8186,22 @@
         <v>206</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>759</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -6441,22 +8210,22 @@
         <v>203</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>726</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D31" s="3"/>
     </row>
@@ -6470,25 +8239,25 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>743</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>622</v>
@@ -6502,31 +8271,31 @@
         <v>153</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>645</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>749</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -6549,10 +8318,10 @@
         <v>202</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="D39" s="3"/>
     </row>
@@ -6564,19 +8333,19 @@
         <v>426</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="D41" s="3"/>
     </row>
@@ -6585,18 +8354,18 @@
         <v>661</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6607,10 +8376,10 @@
         <v>644</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>622</v>
@@ -6700,12 +8469,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3CD6D6-8A13-7342-A149-99232F890266}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7035,7 +8804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299C4D8-108C-C347-A079-14D1CC67BEF2}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -7623,7 +9392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7939,7 +9708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B663391-D25B-0045-851E-8A0BB00A0B0A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -8540,7 +10309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8549,7 +10318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8795,988 +10564,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D50">
-    <sortCondition ref="A3:A50"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D48177-9EF2-1D45-80EE-751A8F12EE03}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F139A0A-301B-47F7-AB22-97B20CBFC6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4AD84B-AA74-4FA9-8CC2-89AD59931DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="802">
   <si>
     <t>Name</t>
   </si>
@@ -2455,9 +2455,6 @@
   </si>
   <si>
     <t>UCI ANTrepreneur Center</t>
-  </si>
-  <si>
-    <t>BTS Analyst</t>
   </si>
   <si>
     <t>Business Technology Solutions Analyst</t>
@@ -2765,7 +2762,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2831,7 +2828,7 @@
         <v>661</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>92</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4AD84B-AA74-4FA9-8CC2-89AD59931DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C15899-612E-42EE-BF0A-977EA65B19DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2334,9 +2334,6 @@
     <t>Julia Lin</t>
   </si>
   <si>
-    <t>Finance/Business Operates Intern</t>
-  </si>
-  <si>
     <t>NASA</t>
   </si>
   <si>
@@ -2442,9 +2439,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Product Design</t>
-  </si>
-  <si>
     <t>Anduril</t>
   </si>
   <si>
@@ -2458,6 +2452,12 @@
   </si>
   <si>
     <t>Business Technology Solutions Analyst</t>
+  </si>
+  <si>
+    <t>Product Design Intern</t>
+  </si>
+  <si>
+    <t>Finance/Business Operations Intern</t>
   </si>
 </sst>
 </file>
@@ -2814,10 +2814,10 @@
         <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>789</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2828,7 +2828,7 @@
         <v>661</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>92</v>
@@ -2842,7 +2842,7 @@
         <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>92</v>
@@ -2862,7 +2862,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2870,7 +2870,7 @@
         <v>629</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>92</v>
@@ -2917,7 +2917,7 @@
         <v>656</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>244</v>
@@ -6581,7 +6581,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6622,7 +6622,7 @@
         <v>472</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -6651,7 +6651,7 @@
         <v>740</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>186</v>
@@ -6666,7 +6666,7 @@
         <v>398</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -6678,19 +6678,19 @@
         <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>780</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -6699,19 +6699,19 @@
         <v>759</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>761</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>343</v>
@@ -6799,22 +6799,22 @@
         <v>749</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>782</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -6835,7 +6835,7 @@
         <v>717</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>188</v>
@@ -6847,10 +6847,10 @@
         <v>664</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6863,13 +6863,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -6890,13 +6890,13 @@
         <v>708</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7591,13 +7591,13 @@
         <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7627,10 +7627,10 @@
         <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>146</v>
@@ -7724,7 +7724,7 @@
         <v>194</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>427</v>
@@ -7749,10 +7749,10 @@
         <v>163</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>775</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -7763,10 +7763,10 @@
         <v>127</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>772</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -7843,7 +7843,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7943,10 +7943,10 @@
         <v>759</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>761</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -8132,13 +8132,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -8156,13 +8156,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>768</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -8171,10 +8171,10 @@
         <v>759</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>763</v>
       </c>
       <c r="D27" s="3"/>
     </row>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C15899-612E-42EE-BF0A-977EA65B19DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7F7A4-55D3-45F2-9B79-4E678751712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2023" sheetId="23" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="804">
   <si>
     <t>Name</t>
   </si>
@@ -2458,6 +2458,12 @@
   </si>
   <si>
     <t>Finance/Business Operations Intern</t>
+  </si>
+  <si>
+    <t>Full Stack Software Engineer Intern</t>
+  </si>
+  <si>
+    <t>Cubic Transportation Systems</t>
   </si>
 </sst>
 </file>
@@ -2761,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9278A1-054B-49B3-865B-6502A97D8222}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6580,8 +6586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A3BAF-FDF2-446E-AB48-20EA8F423893}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6904,10 +6910,10 @@
         <v>651</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>153</v>
+        <v>802</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>711</v>
+        <v>803</v>
       </c>
       <c r="D28" s="3"/>
     </row>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7F7A4-55D3-45F2-9B79-4E678751712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7D9E7-0CE7-49DE-8BB9-6BD3C6095DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2023" sheetId="23" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="803">
   <si>
     <t>Name</t>
   </si>
@@ -2373,18 +2373,6 @@
     <t>C3 AI</t>
   </si>
   <si>
-    <t>Founder</t>
-  </si>
-  <si>
-    <t>ApplicantAI</t>
-  </si>
-  <si>
-    <t>Emerson Collective</t>
-  </si>
-  <si>
-    <t>HR Coordinator</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -2464,6 +2452,15 @@
   </si>
   <si>
     <t>Cubic Transportation Systems</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>Project Coordinator</t>
   </si>
 </sst>
 </file>
@@ -2820,10 +2817,10 @@
         <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2834,7 +2831,7 @@
         <v>661</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>92</v>
@@ -2848,7 +2845,7 @@
         <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>92</v>
@@ -2868,7 +2865,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2876,7 +2873,7 @@
         <v>629</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>92</v>
@@ -2923,7 +2920,7 @@
         <v>656</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>244</v>
@@ -6586,7 +6583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A3BAF-FDF2-446E-AB48-20EA8F423893}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -6628,7 +6625,7 @@
         <v>472</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -6657,7 +6654,7 @@
         <v>740</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>186</v>
@@ -6672,7 +6669,7 @@
         <v>398</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -6684,7 +6681,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -6693,10 +6690,10 @@
         <v>766</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -6705,7 +6702,7 @@
         <v>759</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>760</v>
@@ -6714,10 +6711,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>343</v>
@@ -6805,10 +6802,10 @@
         <v>749</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -6841,7 +6838,7 @@
         <v>717</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>188</v>
@@ -6853,10 +6850,10 @@
         <v>664</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6869,13 +6866,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -6896,13 +6893,13 @@
         <v>708</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6910,10 +6907,10 @@
         <v>651</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -7558,8 +7555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7633,10 +7630,10 @@
         <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>775</v>
+        <v>231</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>146</v>
@@ -7755,10 +7752,10 @@
         <v>163</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -7949,7 +7946,7 @@
         <v>759</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>760</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7D9E7-0CE7-49DE-8BB9-6BD3C6095DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC292A-77A4-427D-9D6D-471046407C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2023" sheetId="23" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2461,6 +2461,27 @@
   </si>
   <si>
     <t>Project Coordinator</t>
+  </si>
+  <si>
+    <t>HR Specialist</t>
+  </si>
+  <si>
+    <t>Asset Management</t>
+  </si>
+  <si>
+    <t>VLA Business Associate</t>
+  </si>
+  <si>
+    <t>FDP Intern</t>
+  </si>
+  <si>
+    <t>Data Analytics Intern</t>
+  </si>
+  <si>
+    <t>Diana Huynh</t>
+  </si>
+  <si>
+    <t>General Atomics Aeronautical Systems, Inc</t>
   </si>
 </sst>
 </file>
@@ -2762,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9278A1-054B-49B3-865B-6502A97D8222}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2905,65 +2926,83 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2975,13 +3014,13 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3006,9 +3045,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6581,10 +6626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A3BAF-FDF2-446E-AB48-20EA8F423893}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C34" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6726,7 +6771,7 @@
         <v>751</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>754</v>
+        <v>806</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>755</v>
@@ -6889,35 +6934,41 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>708</v>
+      <c r="A27" s="3" t="s">
+        <v>808</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>790</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6926,11 +6977,11 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -6939,16 +6990,16 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -6993,13 +7044,13 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -7017,16 +7068,22 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7555,8 +7612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8086-59A2-468E-9F47-04AE6B52AFA8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC292A-77A4-427D-9D6D-471046407C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95F0B5-E1A4-4F45-8A65-FCBD3DD57A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22275" yWindow="405" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2023" sheetId="23" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="812">
   <si>
     <t>Name</t>
   </si>
@@ -2400,9 +2400,6 @@
     <t>Asset and Wealth Management SA</t>
   </si>
   <si>
-    <t>PMM Intern</t>
-  </si>
-  <si>
     <t>Consultant</t>
   </si>
   <si>
@@ -2433,12 +2430,6 @@
     <t>L.S. Congleton &amp; Associates</t>
   </si>
   <si>
-    <t>Instagram Reels and Engagement Micro-Intern</t>
-  </si>
-  <si>
-    <t>UCI ANTrepreneur Center</t>
-  </si>
-  <si>
     <t>Business Technology Solutions Analyst</t>
   </si>
   <si>
@@ -2472,9 +2463,6 @@
     <t>VLA Business Associate</t>
   </si>
   <si>
-    <t>FDP Intern</t>
-  </si>
-  <si>
     <t>Data Analytics Intern</t>
   </si>
   <si>
@@ -2482,6 +2470,24 @@
   </si>
   <si>
     <t>General Atomics Aeronautical Systems, Inc</t>
+  </si>
+  <si>
+    <t>Digital Marketing &amp; Sales Strategy Intern</t>
+  </si>
+  <si>
+    <t>SoKit Beauty</t>
+  </si>
+  <si>
+    <t>Finance Development Program (FDP) Intern</t>
+  </si>
+  <si>
+    <t>Business Planning Intern</t>
+  </si>
+  <si>
+    <t>Notion Campus Leader</t>
+  </si>
+  <si>
+    <t>Notion</t>
   </si>
 </sst>
 </file>
@@ -2785,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9278A1-054B-49B3-865B-6502A97D8222}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2838,10 +2844,10 @@
         <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>784</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2852,7 +2858,7 @@
         <v>661</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>92</v>
@@ -2866,7 +2872,7 @@
         <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>92</v>
@@ -2894,7 +2900,7 @@
         <v>629</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>92</v>
@@ -2930,7 +2936,7 @@
         <v>210</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>186</v>
@@ -2950,7 +2956,7 @@
         <v>212</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>721</v>
@@ -2972,7 +2978,7 @@
         <v>203</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>149</v>
@@ -2989,7 +2995,7 @@
         <v>656</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>244</v>
@@ -6628,8 +6634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A3BAF-FDF2-446E-AB48-20EA8F423893}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C33:C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6670,7 +6676,7 @@
         <v>472</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -6714,7 +6720,7 @@
         <v>398</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -6726,7 +6732,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -6747,7 +6753,7 @@
         <v>759</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>760</v>
@@ -6771,7 +6777,7 @@
         <v>751</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>755</v>
@@ -6871,19 +6877,19 @@
         <v>669</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>712</v>
+        <v>810</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>713</v>
+        <v>811</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>717</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>782</v>
+        <v>809</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>188</v>
@@ -6895,10 +6901,10 @@
         <v>664</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6914,10 +6920,10 @@
         <v>778</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -6935,13 +6941,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -6950,13 +6956,13 @@
         <v>708</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6964,10 +6970,10 @@
         <v>651</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -7687,7 +7693,7 @@
         <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>231</v>
@@ -7809,10 +7815,10 @@
         <v>163</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -8003,7 +8009,7 @@
         <v>759</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>760</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95F0B5-E1A4-4F45-8A65-FCBD3DD57A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED1F5B-98C1-4A03-99E9-C6E7B1D827B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22275" yWindow="405" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="3000" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Offers 2023" sheetId="23" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="841">
   <si>
     <t>Name</t>
   </si>
@@ -2397,9 +2397,6 @@
     <t>Ronica Cheng</t>
   </si>
   <si>
-    <t>Asset and Wealth Management SA</t>
-  </si>
-  <si>
     <t>Consultant</t>
   </si>
   <si>
@@ -2488,13 +2485,103 @@
   </si>
   <si>
     <t>Notion</t>
+  </si>
+  <si>
+    <t>Sales Intern</t>
+  </si>
+  <si>
+    <t>Mirsab Mirza</t>
+  </si>
+  <si>
+    <t>LA Rams</t>
+  </si>
+  <si>
+    <t>Jacob Won</t>
+  </si>
+  <si>
+    <t>Alpha Omega Group</t>
+  </si>
+  <si>
+    <t>Asset and Wealth Management Summer Analyst</t>
+  </si>
+  <si>
+    <t>J.P. Morgan Private Bank</t>
+  </si>
+  <si>
+    <t>Nithin Senthil</t>
+  </si>
+  <si>
+    <t>LoginID</t>
+  </si>
+  <si>
+    <t>Aadi Mehta</t>
+  </si>
+  <si>
+    <t>SMUD</t>
+  </si>
+  <si>
+    <t>SAP System Analyst Intern</t>
+  </si>
+  <si>
+    <t>Tommy Wunsch</t>
+  </si>
+  <si>
+    <t>Studio Store Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOX Entertainment </t>
+  </si>
+  <si>
+    <t>Ishan Malik</t>
+  </si>
+  <si>
+    <t>Operations Intern</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>Jessica Lin</t>
+  </si>
+  <si>
+    <t>R&amp;F Mart</t>
+  </si>
+  <si>
+    <t>Juliana Lee</t>
+  </si>
+  <si>
+    <t>Niche Street</t>
+  </si>
+  <si>
+    <t>Social Media Marketing Manager</t>
+  </si>
+  <si>
+    <t>Communications and Advocacy Intern</t>
+  </si>
+  <si>
+    <t>LCLAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julitza Alvarez </t>
+  </si>
+  <si>
+    <t>Collin Na</t>
+  </si>
+  <si>
+    <t>The Reserve Investments</t>
+  </si>
+  <si>
+    <t>Brennan Kim</t>
+  </si>
+  <si>
+    <t>Consumer Insights Research Intern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2544,6 +2631,18 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2565,7 +2664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2574,6 +2673,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2844,10 +2948,10 @@
         <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>783</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2858,7 +2962,7 @@
         <v>661</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>92</v>
@@ -2872,7 +2976,7 @@
         <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>92</v>
@@ -2900,7 +3004,7 @@
         <v>629</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>92</v>
@@ -2936,7 +3040,7 @@
         <v>210</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>186</v>
@@ -2956,7 +3060,7 @@
         <v>212</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>721</v>
@@ -2978,7 +3082,7 @@
         <v>203</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>149</v>
@@ -2995,7 +3099,7 @@
         <v>656</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>244</v>
@@ -6632,10 +6736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A3BAF-FDF2-446E-AB48-20EA8F423893}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6676,7 +6780,7 @@
         <v>472</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -6705,364 +6809,430 @@
         <v>740</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>817</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>735</v>
+        <v>837</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>398</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>785</v>
+        <v>838</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>774</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>760</v>
+        <v>814</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>815</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>343</v>
+        <v>829</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>830</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>702</v>
+        <v>836</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>714</v>
-  